--- a/out/sample-form.xlsx
+++ b/out/sample-form.xlsx
@@ -110,24 +110,21 @@
   <dxfs count="4">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00ffcccc"/>
+        <patternFill>
           <bgColor rgb="00ffcccc"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFEB9C"/>
+        <patternFill>
           <bgColor rgb="00FFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00ccffcc"/>
+        <patternFill>
           <bgColor rgb="00ccffcc"/>
         </patternFill>
       </fill>
@@ -135,7 +132,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00F79646"/>
+          <bgColor rgb="00FDFDD9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -501,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,9 +513,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -623,16 +621,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -657,12 +660,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -685,12 +689,13 @@
       </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -711,12 +716,13 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -739,12 +745,13 @@
       </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -767,12 +774,13 @@
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -795,12 +803,13 @@
       </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -823,12 +832,13 @@
       </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -851,12 +861,13 @@
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -879,12 +890,13 @@
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -907,12 +919,13 @@
       </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -935,12 +948,13 @@
       </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -963,12 +977,13 @@
       </c>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -989,12 +1004,13 @@
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -1017,12 +1033,13 @@
       </c>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -1043,12 +1060,13 @@
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -1071,12 +1089,13 @@
       </c>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -1099,12 +1118,13 @@
       </c>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -1125,12 +1145,13 @@
       <c r="F24" s="7" t="inlineStr"/>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -1151,12 +1172,13 @@
       <c r="F25" s="7" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -1177,12 +1199,13 @@
       <c r="F26" s="7" t="inlineStr"/>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -1205,12 +1228,13 @@
       </c>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -1233,12 +1257,13 @@
       </c>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -1259,12 +1284,13 @@
       <c r="F29" s="7" t="inlineStr"/>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -1287,12 +1313,13 @@
       </c>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -1315,12 +1342,13 @@
       </c>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -1341,12 +1369,13 @@
       <c r="F32" s="7" t="inlineStr"/>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -1369,12 +1398,13 @@
       </c>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -1397,12 +1427,13 @@
       </c>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -1423,12 +1454,13 @@
       <c r="F35" s="7" t="inlineStr"/>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -1449,12 +1481,13 @@
       <c r="F36" s="7" t="inlineStr"/>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -1475,12 +1508,13 @@
       <c r="F37" s="7" t="inlineStr"/>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -1501,12 +1535,13 @@
       <c r="F38" s="7" t="inlineStr"/>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -1527,12 +1562,13 @@
       <c r="F39" s="7" t="inlineStr"/>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -1555,12 +1591,13 @@
       </c>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -1583,12 +1620,13 @@
       </c>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -1609,12 +1647,13 @@
       <c r="F42" s="7" t="inlineStr"/>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -1635,12 +1674,13 @@
       <c r="F43" s="7" t="inlineStr"/>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -1663,12 +1703,13 @@
       </c>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -1689,12 +1730,13 @@
       <c r="F45" s="7" t="inlineStr"/>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -1715,12 +1757,13 @@
       <c r="F46" s="7" t="inlineStr"/>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -1743,12 +1786,13 @@
       </c>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -1769,12 +1813,13 @@
       <c r="F48" s="7" t="inlineStr"/>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -1795,12 +1840,13 @@
       <c r="F49" s="7" t="inlineStr"/>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -1821,12 +1867,13 @@
       <c r="F50" s="7" t="inlineStr"/>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -1847,12 +1894,13 @@
       <c r="F51" s="7" t="inlineStr"/>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -1873,12 +1921,13 @@
       <c r="F52" s="7" t="inlineStr"/>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -1901,12 +1950,13 @@
       </c>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -1927,12 +1977,13 @@
       <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -1953,12 +2004,13 @@
       <c r="F55" s="7" t="inlineStr"/>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -1981,12 +2033,13 @@
       </c>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -2009,12 +2062,13 @@
       </c>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -2037,12 +2091,13 @@
       </c>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -2063,12 +2118,13 @@
       <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -2091,12 +2147,13 @@
       </c>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -2119,12 +2176,13 @@
       </c>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -2145,12 +2203,13 @@
       <c r="F62" s="7" t="inlineStr"/>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -2171,12 +2230,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -2199,12 +2259,13 @@
       </c>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -2227,12 +2288,13 @@
       </c>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -2253,12 +2315,13 @@
       <c r="F66" s="7" t="inlineStr"/>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -2281,12 +2344,13 @@
       </c>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -2307,12 +2371,13 @@
       <c r="F68" s="7" t="inlineStr"/>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -2333,12 +2398,13 @@
       <c r="F69" s="7" t="inlineStr"/>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -2361,23 +2427,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K69">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L69">
+    <cfRule type="cellIs" priority="1" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1001" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1001" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1001" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H69">
+  <conditionalFormatting sqref="A7:I69">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2390,7 +2459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,9 +2474,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2512,16 +2582,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -2546,12 +2621,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -2572,12 +2648,13 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -2598,12 +2675,13 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -2624,12 +2702,13 @@
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -2652,12 +2731,13 @@
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -2680,12 +2760,13 @@
       </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -2706,12 +2787,13 @@
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -2732,12 +2814,13 @@
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -2758,12 +2841,13 @@
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -2786,12 +2870,13 @@
       </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -2814,12 +2899,13 @@
       </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -2842,12 +2928,13 @@
       </c>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -2870,12 +2957,13 @@
       </c>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -2896,12 +2984,13 @@
       <c r="F20" s="7" t="inlineStr"/>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -2922,12 +3011,13 @@
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -2948,12 +3038,13 @@
       <c r="F22" s="7" t="inlineStr"/>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -2974,12 +3065,13 @@
       <c r="F23" s="7" t="inlineStr"/>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -3000,12 +3092,13 @@
       <c r="F24" s="7" t="inlineStr"/>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -3026,12 +3119,13 @@
       <c r="F25" s="7" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -3052,12 +3146,13 @@
       <c r="F26" s="7" t="inlineStr"/>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -3078,12 +3173,13 @@
       <c r="F27" s="7" t="inlineStr"/>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -3104,12 +3200,13 @@
       <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -3130,12 +3227,13 @@
       <c r="F29" s="7" t="inlineStr"/>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -3158,12 +3256,13 @@
       </c>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -3184,12 +3283,13 @@
       <c r="F31" s="7" t="inlineStr"/>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -3210,12 +3310,13 @@
       <c r="F32" s="7" t="inlineStr"/>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -3236,12 +3337,13 @@
       <c r="F33" s="7" t="inlineStr"/>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -3264,12 +3366,13 @@
       </c>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -3290,12 +3393,13 @@
       <c r="F35" s="7" t="inlineStr"/>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -3318,12 +3422,13 @@
       </c>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -3344,12 +3449,13 @@
       <c r="F37" s="7" t="inlineStr"/>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -3372,12 +3478,13 @@
       </c>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -3400,12 +3507,13 @@
       </c>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -3428,12 +3536,13 @@
       </c>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -3456,12 +3565,13 @@
       </c>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -3482,12 +3592,13 @@
       <c r="F42" s="7" t="inlineStr"/>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -3508,12 +3619,13 @@
       <c r="F43" s="7" t="inlineStr"/>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -3536,12 +3648,13 @@
       </c>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -3562,12 +3675,13 @@
       <c r="F45" s="7" t="inlineStr"/>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -3588,12 +3702,13 @@
       <c r="F46" s="7" t="inlineStr"/>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -3614,12 +3729,13 @@
       <c r="F47" s="7" t="inlineStr"/>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -3642,12 +3758,13 @@
       </c>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -3670,12 +3787,13 @@
       </c>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -3696,12 +3814,13 @@
       <c r="F50" s="7" t="inlineStr"/>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -3722,12 +3841,13 @@
       <c r="F51" s="7" t="inlineStr"/>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -3748,12 +3868,13 @@
       <c r="F52" s="7" t="inlineStr"/>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -3776,12 +3897,13 @@
       </c>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -3802,12 +3924,13 @@
       <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -3828,12 +3951,13 @@
       <c r="F55" s="7" t="inlineStr"/>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -3856,12 +3980,13 @@
       </c>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -3884,12 +4009,13 @@
       </c>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -3910,12 +4036,13 @@
       <c r="F58" s="7" t="inlineStr"/>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -3936,12 +4063,13 @@
       <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -3962,12 +4090,13 @@
       <c r="F60" s="7" t="inlineStr"/>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -3988,12 +4117,13 @@
       <c r="F61" s="7" t="inlineStr"/>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -4014,12 +4144,13 @@
       <c r="F62" s="7" t="inlineStr"/>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -4040,12 +4171,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -4068,12 +4200,13 @@
       </c>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -4094,12 +4227,13 @@
       <c r="F65" s="7" t="inlineStr"/>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -4122,12 +4256,13 @@
       </c>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -4148,12 +4283,13 @@
       <c r="F67" s="7" t="inlineStr"/>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -4176,12 +4312,13 @@
       </c>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -4204,12 +4341,13 @@
       </c>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -4230,12 +4368,13 @@
       <c r="F70" s="7" t="inlineStr"/>
       <c r="G70" s="7" t="inlineStr"/>
       <c r="H70" s="5" t="inlineStr"/>
-      <c r="J70" s="7">
+      <c r="I70" s="5" t="inlineStr"/>
+      <c r="K70" s="7">
         <f>IFERROR(AVERAGE(D70, E70), "")</f>
         <v/>
       </c>
-      <c r="K70" s="7">
-        <f>IFERROR(J70 - C70, "")</f>
+      <c r="L70" s="7">
+        <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
     </row>
@@ -4258,12 +4397,13 @@
       </c>
       <c r="G71" s="7" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr"/>
-      <c r="J71" s="7">
+      <c r="I71" s="5" t="inlineStr"/>
+      <c r="K71" s="7">
         <f>IFERROR(AVERAGE(D71, E71), "")</f>
         <v/>
       </c>
-      <c r="K71" s="7">
-        <f>IFERROR(J71 - C71, "")</f>
+      <c r="L71" s="7">
+        <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
     </row>
@@ -4286,12 +4426,13 @@
       </c>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
-      <c r="J72" s="7">
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="K72" s="7">
         <f>IFERROR(AVERAGE(D72, E72), "")</f>
         <v/>
       </c>
-      <c r="K72" s="7">
-        <f>IFERROR(J72 - C72, "")</f>
+      <c r="L72" s="7">
+        <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
     </row>
@@ -4314,12 +4455,13 @@
       </c>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
-      <c r="J73" s="7">
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="K73" s="7">
         <f>IFERROR(AVERAGE(D73, E73), "")</f>
         <v/>
       </c>
-      <c r="K73" s="7">
-        <f>IFERROR(J73 - C73, "")</f>
+      <c r="L73" s="7">
+        <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
     </row>
@@ -4342,12 +4484,13 @@
       </c>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
-      <c r="J74" s="7">
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="K74" s="7">
         <f>IFERROR(AVERAGE(D74, E74), "")</f>
         <v/>
       </c>
-      <c r="K74" s="7">
-        <f>IFERROR(J74 - C74, "")</f>
+      <c r="L74" s="7">
+        <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
     </row>
@@ -4370,12 +4513,13 @@
       </c>
       <c r="G75" s="7" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
-      <c r="J75" s="7">
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="K75" s="7">
         <f>IFERROR(AVERAGE(D75, E75), "")</f>
         <v/>
       </c>
-      <c r="K75" s="7">
-        <f>IFERROR(J75 - C75, "")</f>
+      <c r="L75" s="7">
+        <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
     </row>
@@ -4398,12 +4542,13 @@
       </c>
       <c r="G76" s="7" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr"/>
-      <c r="J76" s="7">
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="K76" s="7">
         <f>IFERROR(AVERAGE(D76, E76), "")</f>
         <v/>
       </c>
-      <c r="K76" s="7">
-        <f>IFERROR(J76 - C76, "")</f>
+      <c r="L76" s="7">
+        <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
     </row>
@@ -4426,12 +4571,13 @@
       </c>
       <c r="G77" s="7" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr"/>
-      <c r="J77" s="7">
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="K77" s="7">
         <f>IFERROR(AVERAGE(D77, E77), "")</f>
         <v/>
       </c>
-      <c r="K77" s="7">
-        <f>IFERROR(J77 - C77, "")</f>
+      <c r="L77" s="7">
+        <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
     </row>
@@ -4452,12 +4598,13 @@
       <c r="F78" s="7" t="inlineStr"/>
       <c r="G78" s="7" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
-      <c r="J78" s="7">
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="K78" s="7">
         <f>IFERROR(AVERAGE(D78, E78), "")</f>
         <v/>
       </c>
-      <c r="K78" s="7">
-        <f>IFERROR(J78 - C78, "")</f>
+      <c r="L78" s="7">
+        <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
     </row>
@@ -4478,12 +4625,13 @@
       <c r="F79" s="7" t="inlineStr"/>
       <c r="G79" s="7" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
-      <c r="J79" s="7">
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="K79" s="7">
         <f>IFERROR(AVERAGE(D79, E79), "")</f>
         <v/>
       </c>
-      <c r="K79" s="7">
-        <f>IFERROR(J79 - C79, "")</f>
+      <c r="L79" s="7">
+        <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
     </row>
@@ -4506,23 +4654,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K79">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L79">
+    <cfRule type="cellIs" priority="2" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1002" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1002" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1002" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H79">
+  <conditionalFormatting sqref="A7:I79">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4535,7 +4686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4550,9 +4701,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4657,16 +4809,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -4691,12 +4848,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -4719,12 +4877,13 @@
       </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -4747,12 +4906,13 @@
       </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -4775,12 +4935,13 @@
       </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -4801,12 +4962,13 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -4829,12 +4991,13 @@
       </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -4857,12 +5020,13 @@
       </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -4883,12 +5047,13 @@
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -4911,12 +5076,13 @@
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -4937,12 +5103,13 @@
       <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -4965,12 +5132,13 @@
       </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -4993,12 +5161,13 @@
       </c>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -5021,12 +5190,13 @@
       </c>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -5047,12 +5217,13 @@
       <c r="F20" s="7" t="inlineStr"/>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -5075,12 +5246,13 @@
       </c>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -5101,12 +5273,13 @@
       <c r="F22" s="7" t="inlineStr"/>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -5129,12 +5302,13 @@
       </c>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -5157,12 +5331,13 @@
       </c>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -5185,12 +5360,13 @@
       </c>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -5211,12 +5387,13 @@
       <c r="F26" s="7" t="inlineStr"/>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -5239,12 +5416,13 @@
       </c>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -5265,12 +5443,13 @@
       <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -5291,12 +5470,13 @@
       <c r="F29" s="7" t="inlineStr"/>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -5317,12 +5497,13 @@
       <c r="F30" s="7" t="inlineStr"/>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -5343,12 +5524,13 @@
       <c r="F31" s="7" t="inlineStr"/>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -5371,12 +5553,13 @@
       </c>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -5397,12 +5580,13 @@
       <c r="F33" s="7" t="inlineStr"/>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -5423,12 +5607,13 @@
       <c r="F34" s="7" t="inlineStr"/>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -5451,12 +5636,13 @@
       </c>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -5479,12 +5665,13 @@
       </c>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -5507,12 +5694,13 @@
       </c>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -5535,12 +5723,13 @@
       </c>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -5563,12 +5752,13 @@
       </c>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -5591,12 +5781,13 @@
       </c>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -5619,12 +5810,13 @@
       </c>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -5647,12 +5839,13 @@
       </c>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -5673,12 +5866,13 @@
       <c r="F43" s="7" t="inlineStr"/>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -5701,12 +5895,13 @@
       </c>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -5729,12 +5924,13 @@
       </c>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -5757,12 +5953,13 @@
       </c>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -5783,12 +5980,13 @@
       <c r="F47" s="7" t="inlineStr"/>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -5811,12 +6009,13 @@
       </c>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -5839,12 +6038,13 @@
       </c>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -5867,12 +6067,13 @@
       </c>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -5895,12 +6096,13 @@
       </c>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -5923,12 +6125,13 @@
       </c>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -5949,12 +6152,13 @@
       <c r="F53" s="7" t="inlineStr"/>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -5977,12 +6181,13 @@
       </c>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -6003,12 +6208,13 @@
       <c r="F55" s="7" t="inlineStr"/>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -6029,12 +6235,13 @@
       <c r="F56" s="7" t="inlineStr"/>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -6055,12 +6262,13 @@
       <c r="F57" s="7" t="inlineStr"/>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -6083,12 +6291,13 @@
       </c>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -6109,12 +6318,13 @@
       <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -6137,12 +6347,13 @@
       </c>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -6165,12 +6376,13 @@
       </c>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -6193,12 +6405,13 @@
       </c>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -6219,12 +6432,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -6245,12 +6459,13 @@
       <c r="F64" s="7" t="inlineStr"/>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -6271,12 +6486,13 @@
       <c r="F65" s="7" t="inlineStr"/>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -6299,12 +6515,13 @@
       </c>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -6327,12 +6544,13 @@
       </c>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -6353,12 +6571,13 @@
       <c r="F68" s="7" t="inlineStr"/>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -6381,12 +6600,13 @@
       </c>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -6407,12 +6627,13 @@
       <c r="F70" s="7" t="inlineStr"/>
       <c r="G70" s="7" t="inlineStr"/>
       <c r="H70" s="5" t="inlineStr"/>
-      <c r="J70" s="7">
+      <c r="I70" s="5" t="inlineStr"/>
+      <c r="K70" s="7">
         <f>IFERROR(AVERAGE(D70, E70), "")</f>
         <v/>
       </c>
-      <c r="K70" s="7">
-        <f>IFERROR(J70 - C70, "")</f>
+      <c r="L70" s="7">
+        <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
     </row>
@@ -6435,12 +6656,13 @@
       </c>
       <c r="G71" s="7" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr"/>
-      <c r="J71" s="7">
+      <c r="I71" s="5" t="inlineStr"/>
+      <c r="K71" s="7">
         <f>IFERROR(AVERAGE(D71, E71), "")</f>
         <v/>
       </c>
-      <c r="K71" s="7">
-        <f>IFERROR(J71 - C71, "")</f>
+      <c r="L71" s="7">
+        <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
     </row>
@@ -6463,12 +6685,13 @@
       </c>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
-      <c r="J72" s="7">
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="K72" s="7">
         <f>IFERROR(AVERAGE(D72, E72), "")</f>
         <v/>
       </c>
-      <c r="K72" s="7">
-        <f>IFERROR(J72 - C72, "")</f>
+      <c r="L72" s="7">
+        <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
     </row>
@@ -6491,12 +6714,13 @@
       </c>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
-      <c r="J73" s="7">
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="K73" s="7">
         <f>IFERROR(AVERAGE(D73, E73), "")</f>
         <v/>
       </c>
-      <c r="K73" s="7">
-        <f>IFERROR(J73 - C73, "")</f>
+      <c r="L73" s="7">
+        <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
     </row>
@@ -6519,12 +6743,13 @@
       </c>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
-      <c r="J74" s="7">
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="K74" s="7">
         <f>IFERROR(AVERAGE(D74, E74), "")</f>
         <v/>
       </c>
-      <c r="K74" s="7">
-        <f>IFERROR(J74 - C74, "")</f>
+      <c r="L74" s="7">
+        <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
     </row>
@@ -6547,12 +6772,13 @@
       </c>
       <c r="G75" s="7" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
-      <c r="J75" s="7">
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="K75" s="7">
         <f>IFERROR(AVERAGE(D75, E75), "")</f>
         <v/>
       </c>
-      <c r="K75" s="7">
-        <f>IFERROR(J75 - C75, "")</f>
+      <c r="L75" s="7">
+        <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
     </row>
@@ -6573,12 +6799,13 @@
       <c r="F76" s="7" t="inlineStr"/>
       <c r="G76" s="7" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr"/>
-      <c r="J76" s="7">
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="K76" s="7">
         <f>IFERROR(AVERAGE(D76, E76), "")</f>
         <v/>
       </c>
-      <c r="K76" s="7">
-        <f>IFERROR(J76 - C76, "")</f>
+      <c r="L76" s="7">
+        <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
     </row>
@@ -6601,12 +6828,13 @@
       </c>
       <c r="G77" s="7" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr"/>
-      <c r="J77" s="7">
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="K77" s="7">
         <f>IFERROR(AVERAGE(D77, E77), "")</f>
         <v/>
       </c>
-      <c r="K77" s="7">
-        <f>IFERROR(J77 - C77, "")</f>
+      <c r="L77" s="7">
+        <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
     </row>
@@ -6627,12 +6855,13 @@
       <c r="F78" s="7" t="inlineStr"/>
       <c r="G78" s="7" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
-      <c r="J78" s="7">
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="K78" s="7">
         <f>IFERROR(AVERAGE(D78, E78), "")</f>
         <v/>
       </c>
-      <c r="K78" s="7">
-        <f>IFERROR(J78 - C78, "")</f>
+      <c r="L78" s="7">
+        <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
     </row>
@@ -6653,12 +6882,13 @@
       <c r="F79" s="7" t="inlineStr"/>
       <c r="G79" s="7" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
-      <c r="J79" s="7">
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="K79" s="7">
         <f>IFERROR(AVERAGE(D79, E79), "")</f>
         <v/>
       </c>
-      <c r="K79" s="7">
-        <f>IFERROR(J79 - C79, "")</f>
+      <c r="L79" s="7">
+        <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
     </row>
@@ -6681,12 +6911,13 @@
       </c>
       <c r="G80" s="7" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr"/>
-      <c r="J80" s="7">
+      <c r="I80" s="5" t="inlineStr"/>
+      <c r="K80" s="7">
         <f>IFERROR(AVERAGE(D80, E80), "")</f>
         <v/>
       </c>
-      <c r="K80" s="7">
-        <f>IFERROR(J80 - C80, "")</f>
+      <c r="L80" s="7">
+        <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
     </row>
@@ -6709,12 +6940,13 @@
       </c>
       <c r="G81" s="7" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr"/>
-      <c r="J81" s="7">
+      <c r="I81" s="5" t="inlineStr"/>
+      <c r="K81" s="7">
         <f>IFERROR(AVERAGE(D81, E81), "")</f>
         <v/>
       </c>
-      <c r="K81" s="7">
-        <f>IFERROR(J81 - C81, "")</f>
+      <c r="L81" s="7">
+        <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
     </row>
@@ -6735,12 +6967,13 @@
       <c r="F82" s="7" t="inlineStr"/>
       <c r="G82" s="7" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr"/>
-      <c r="J82" s="7">
+      <c r="I82" s="5" t="inlineStr"/>
+      <c r="K82" s="7">
         <f>IFERROR(AVERAGE(D82, E82), "")</f>
         <v/>
       </c>
-      <c r="K82" s="7">
-        <f>IFERROR(J82 - C82, "")</f>
+      <c r="L82" s="7">
+        <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
     </row>
@@ -6761,12 +6994,13 @@
       <c r="F83" s="7" t="inlineStr"/>
       <c r="G83" s="7" t="inlineStr"/>
       <c r="H83" s="5" t="inlineStr"/>
-      <c r="J83" s="7">
+      <c r="I83" s="5" t="inlineStr"/>
+      <c r="K83" s="7">
         <f>IFERROR(AVERAGE(D83, E83), "")</f>
         <v/>
       </c>
-      <c r="K83" s="7">
-        <f>IFERROR(J83 - C83, "")</f>
+      <c r="L83" s="7">
+        <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
     </row>
@@ -6789,12 +7023,13 @@
       </c>
       <c r="G84" s="7" t="inlineStr"/>
       <c r="H84" s="5" t="inlineStr"/>
-      <c r="J84" s="7">
+      <c r="I84" s="5" t="inlineStr"/>
+      <c r="K84" s="7">
         <f>IFERROR(AVERAGE(D84, E84), "")</f>
         <v/>
       </c>
-      <c r="K84" s="7">
-        <f>IFERROR(J84 - C84, "")</f>
+      <c r="L84" s="7">
+        <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
     </row>
@@ -6817,12 +7052,13 @@
       </c>
       <c r="G85" s="7" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr"/>
-      <c r="J85" s="7">
+      <c r="I85" s="5" t="inlineStr"/>
+      <c r="K85" s="7">
         <f>IFERROR(AVERAGE(D85, E85), "")</f>
         <v/>
       </c>
-      <c r="K85" s="7">
-        <f>IFERROR(J85 - C85, "")</f>
+      <c r="L85" s="7">
+        <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
     </row>
@@ -6845,12 +7081,13 @@
       </c>
       <c r="G86" s="7" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr"/>
-      <c r="J86" s="7">
+      <c r="I86" s="5" t="inlineStr"/>
+      <c r="K86" s="7">
         <f>IFERROR(AVERAGE(D86, E86), "")</f>
         <v/>
       </c>
-      <c r="K86" s="7">
-        <f>IFERROR(J86 - C86, "")</f>
+      <c r="L86" s="7">
+        <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
     </row>
@@ -6873,12 +7110,13 @@
       </c>
       <c r="G87" s="7" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr"/>
-      <c r="J87" s="7">
+      <c r="I87" s="5" t="inlineStr"/>
+      <c r="K87" s="7">
         <f>IFERROR(AVERAGE(D87, E87), "")</f>
         <v/>
       </c>
-      <c r="K87" s="7">
-        <f>IFERROR(J87 - C87, "")</f>
+      <c r="L87" s="7">
+        <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
     </row>
@@ -6901,12 +7139,13 @@
       </c>
       <c r="G88" s="7" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr"/>
-      <c r="J88" s="7">
+      <c r="I88" s="5" t="inlineStr"/>
+      <c r="K88" s="7">
         <f>IFERROR(AVERAGE(D88, E88), "")</f>
         <v/>
       </c>
-      <c r="K88" s="7">
-        <f>IFERROR(J88 - C88, "")</f>
+      <c r="L88" s="7">
+        <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
     </row>
@@ -6929,12 +7168,13 @@
       </c>
       <c r="G89" s="7" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr"/>
-      <c r="J89" s="7">
+      <c r="I89" s="5" t="inlineStr"/>
+      <c r="K89" s="7">
         <f>IFERROR(AVERAGE(D89, E89), "")</f>
         <v/>
       </c>
-      <c r="K89" s="7">
-        <f>IFERROR(J89 - C89, "")</f>
+      <c r="L89" s="7">
+        <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
     </row>
@@ -6957,12 +7197,13 @@
       </c>
       <c r="G90" s="7" t="inlineStr"/>
       <c r="H90" s="5" t="inlineStr"/>
-      <c r="J90" s="7">
+      <c r="I90" s="5" t="inlineStr"/>
+      <c r="K90" s="7">
         <f>IFERROR(AVERAGE(D90, E90), "")</f>
         <v/>
       </c>
-      <c r="K90" s="7">
-        <f>IFERROR(J90 - C90, "")</f>
+      <c r="L90" s="7">
+        <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
     </row>
@@ -6985,23 +7226,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K90">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L90">
+    <cfRule type="cellIs" priority="3" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1003" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1003" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1003" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H90">
+  <conditionalFormatting sqref="A7:I90">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7014,7 +7258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7029,9 +7273,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7136,16 +7381,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -7170,12 +7420,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -7198,12 +7449,13 @@
       </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -7224,12 +7476,13 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -7250,12 +7503,13 @@
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -7276,12 +7530,13 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -7302,12 +7557,13 @@
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -7330,12 +7586,13 @@
       </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -7356,12 +7613,13 @@
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -7384,12 +7642,13 @@
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -7410,12 +7669,13 @@
       <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -7436,12 +7696,13 @@
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -7464,12 +7725,13 @@
       </c>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -7490,12 +7752,13 @@
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -7516,12 +7779,13 @@
       <c r="F20" s="7" t="inlineStr"/>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -7544,12 +7808,13 @@
       </c>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -7570,12 +7835,13 @@
       <c r="F22" s="7" t="inlineStr"/>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -7596,12 +7862,13 @@
       <c r="F23" s="7" t="inlineStr"/>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -7624,12 +7891,13 @@
       </c>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -7650,12 +7918,13 @@
       <c r="F25" s="7" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -7676,12 +7945,13 @@
       <c r="F26" s="7" t="inlineStr"/>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -7704,12 +7974,13 @@
       </c>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -7730,12 +8001,13 @@
       <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -7756,12 +8028,13 @@
       <c r="F29" s="7" t="inlineStr"/>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -7784,12 +8057,13 @@
       </c>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -7812,12 +8086,13 @@
       </c>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -7840,12 +8115,13 @@
       </c>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -7868,12 +8144,13 @@
       </c>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -7894,12 +8171,13 @@
       <c r="F34" s="7" t="inlineStr"/>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -7922,12 +8200,13 @@
       </c>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -7950,12 +8229,13 @@
       </c>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -7978,12 +8258,13 @@
       </c>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -8004,12 +8285,13 @@
       <c r="F38" s="7" t="inlineStr"/>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -8030,12 +8312,13 @@
       <c r="F39" s="7" t="inlineStr"/>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -8056,12 +8339,13 @@
       <c r="F40" s="7" t="inlineStr"/>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -8084,12 +8368,13 @@
       </c>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -8112,12 +8397,13 @@
       </c>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -8138,12 +8424,13 @@
       <c r="F43" s="7" t="inlineStr"/>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -8164,12 +8451,13 @@
       <c r="F44" s="7" t="inlineStr"/>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -8192,12 +8480,13 @@
       </c>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -8220,12 +8509,13 @@
       </c>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -8248,12 +8538,13 @@
       </c>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -8274,12 +8565,13 @@
       <c r="F48" s="7" t="inlineStr"/>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -8302,12 +8594,13 @@
       </c>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -8328,12 +8621,13 @@
       <c r="F50" s="7" t="inlineStr"/>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -8354,12 +8648,13 @@
       <c r="F51" s="7" t="inlineStr"/>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -8382,12 +8677,13 @@
       </c>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -8408,12 +8704,13 @@
       <c r="F53" s="7" t="inlineStr"/>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -8434,12 +8731,13 @@
       <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -8460,12 +8758,13 @@
       <c r="F55" s="7" t="inlineStr"/>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -8486,12 +8785,13 @@
       <c r="F56" s="7" t="inlineStr"/>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -8512,12 +8812,13 @@
       <c r="F57" s="7" t="inlineStr"/>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -8540,12 +8841,13 @@
       </c>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -8568,12 +8870,13 @@
       </c>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -8594,12 +8897,13 @@
       <c r="F60" s="7" t="inlineStr"/>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -8620,12 +8924,13 @@
       <c r="F61" s="7" t="inlineStr"/>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -8646,12 +8951,13 @@
       <c r="F62" s="7" t="inlineStr"/>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -8672,12 +8978,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -8698,12 +9005,13 @@
       <c r="F64" s="7" t="inlineStr"/>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -8724,12 +9032,13 @@
       <c r="F65" s="7" t="inlineStr"/>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -8750,12 +9059,13 @@
       <c r="F66" s="7" t="inlineStr"/>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -8778,12 +9088,13 @@
       </c>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -8804,12 +9115,13 @@
       <c r="F68" s="7" t="inlineStr"/>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -8830,12 +9142,13 @@
       <c r="F69" s="7" t="inlineStr"/>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -8856,12 +9169,13 @@
       <c r="F70" s="7" t="inlineStr"/>
       <c r="G70" s="7" t="inlineStr"/>
       <c r="H70" s="5" t="inlineStr"/>
-      <c r="J70" s="7">
+      <c r="I70" s="5" t="inlineStr"/>
+      <c r="K70" s="7">
         <f>IFERROR(AVERAGE(D70, E70), "")</f>
         <v/>
       </c>
-      <c r="K70" s="7">
-        <f>IFERROR(J70 - C70, "")</f>
+      <c r="L70" s="7">
+        <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
     </row>
@@ -8882,12 +9196,13 @@
       <c r="F71" s="7" t="inlineStr"/>
       <c r="G71" s="7" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr"/>
-      <c r="J71" s="7">
+      <c r="I71" s="5" t="inlineStr"/>
+      <c r="K71" s="7">
         <f>IFERROR(AVERAGE(D71, E71), "")</f>
         <v/>
       </c>
-      <c r="K71" s="7">
-        <f>IFERROR(J71 - C71, "")</f>
+      <c r="L71" s="7">
+        <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
     </row>
@@ -8908,12 +9223,13 @@
       <c r="F72" s="7" t="inlineStr"/>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
-      <c r="J72" s="7">
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="K72" s="7">
         <f>IFERROR(AVERAGE(D72, E72), "")</f>
         <v/>
       </c>
-      <c r="K72" s="7">
-        <f>IFERROR(J72 - C72, "")</f>
+      <c r="L72" s="7">
+        <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
     </row>
@@ -8936,12 +9252,13 @@
       </c>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
-      <c r="J73" s="7">
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="K73" s="7">
         <f>IFERROR(AVERAGE(D73, E73), "")</f>
         <v/>
       </c>
-      <c r="K73" s="7">
-        <f>IFERROR(J73 - C73, "")</f>
+      <c r="L73" s="7">
+        <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
     </row>
@@ -8962,12 +9279,13 @@
       <c r="F74" s="7" t="inlineStr"/>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
-      <c r="J74" s="7">
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="K74" s="7">
         <f>IFERROR(AVERAGE(D74, E74), "")</f>
         <v/>
       </c>
-      <c r="K74" s="7">
-        <f>IFERROR(J74 - C74, "")</f>
+      <c r="L74" s="7">
+        <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
     </row>
@@ -8988,12 +9306,13 @@
       <c r="F75" s="7" t="inlineStr"/>
       <c r="G75" s="7" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
-      <c r="J75" s="7">
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="K75" s="7">
         <f>IFERROR(AVERAGE(D75, E75), "")</f>
         <v/>
       </c>
-      <c r="K75" s="7">
-        <f>IFERROR(J75 - C75, "")</f>
+      <c r="L75" s="7">
+        <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
     </row>
@@ -9014,12 +9333,13 @@
       <c r="F76" s="7" t="inlineStr"/>
       <c r="G76" s="7" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr"/>
-      <c r="J76" s="7">
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="K76" s="7">
         <f>IFERROR(AVERAGE(D76, E76), "")</f>
         <v/>
       </c>
-      <c r="K76" s="7">
-        <f>IFERROR(J76 - C76, "")</f>
+      <c r="L76" s="7">
+        <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
     </row>
@@ -9040,12 +9360,13 @@
       <c r="F77" s="7" t="inlineStr"/>
       <c r="G77" s="7" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr"/>
-      <c r="J77" s="7">
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="K77" s="7">
         <f>IFERROR(AVERAGE(D77, E77), "")</f>
         <v/>
       </c>
-      <c r="K77" s="7">
-        <f>IFERROR(J77 - C77, "")</f>
+      <c r="L77" s="7">
+        <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
     </row>
@@ -9068,12 +9389,13 @@
       </c>
       <c r="G78" s="7" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
-      <c r="J78" s="7">
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="K78" s="7">
         <f>IFERROR(AVERAGE(D78, E78), "")</f>
         <v/>
       </c>
-      <c r="K78" s="7">
-        <f>IFERROR(J78 - C78, "")</f>
+      <c r="L78" s="7">
+        <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
     </row>
@@ -9094,12 +9416,13 @@
       <c r="F79" s="7" t="inlineStr"/>
       <c r="G79" s="7" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
-      <c r="J79" s="7">
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="K79" s="7">
         <f>IFERROR(AVERAGE(D79, E79), "")</f>
         <v/>
       </c>
-      <c r="K79" s="7">
-        <f>IFERROR(J79 - C79, "")</f>
+      <c r="L79" s="7">
+        <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
     </row>
@@ -9120,12 +9443,13 @@
       <c r="F80" s="7" t="inlineStr"/>
       <c r="G80" s="7" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr"/>
-      <c r="J80" s="7">
+      <c r="I80" s="5" t="inlineStr"/>
+      <c r="K80" s="7">
         <f>IFERROR(AVERAGE(D80, E80), "")</f>
         <v/>
       </c>
-      <c r="K80" s="7">
-        <f>IFERROR(J80 - C80, "")</f>
+      <c r="L80" s="7">
+        <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
     </row>
@@ -9146,12 +9470,13 @@
       <c r="F81" s="7" t="inlineStr"/>
       <c r="G81" s="7" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr"/>
-      <c r="J81" s="7">
+      <c r="I81" s="5" t="inlineStr"/>
+      <c r="K81" s="7">
         <f>IFERROR(AVERAGE(D81, E81), "")</f>
         <v/>
       </c>
-      <c r="K81" s="7">
-        <f>IFERROR(J81 - C81, "")</f>
+      <c r="L81" s="7">
+        <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
     </row>
@@ -9172,12 +9497,13 @@
       <c r="F82" s="7" t="inlineStr"/>
       <c r="G82" s="7" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr"/>
-      <c r="J82" s="7">
+      <c r="I82" s="5" t="inlineStr"/>
+      <c r="K82" s="7">
         <f>IFERROR(AVERAGE(D82, E82), "")</f>
         <v/>
       </c>
-      <c r="K82" s="7">
-        <f>IFERROR(J82 - C82, "")</f>
+      <c r="L82" s="7">
+        <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
     </row>
@@ -9200,12 +9526,13 @@
       </c>
       <c r="G83" s="7" t="inlineStr"/>
       <c r="H83" s="5" t="inlineStr"/>
-      <c r="J83" s="7">
+      <c r="I83" s="5" t="inlineStr"/>
+      <c r="K83" s="7">
         <f>IFERROR(AVERAGE(D83, E83), "")</f>
         <v/>
       </c>
-      <c r="K83" s="7">
-        <f>IFERROR(J83 - C83, "")</f>
+      <c r="L83" s="7">
+        <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
     </row>
@@ -9226,12 +9553,13 @@
       <c r="F84" s="7" t="inlineStr"/>
       <c r="G84" s="7" t="inlineStr"/>
       <c r="H84" s="5" t="inlineStr"/>
-      <c r="J84" s="7">
+      <c r="I84" s="5" t="inlineStr"/>
+      <c r="K84" s="7">
         <f>IFERROR(AVERAGE(D84, E84), "")</f>
         <v/>
       </c>
-      <c r="K84" s="7">
-        <f>IFERROR(J84 - C84, "")</f>
+      <c r="L84" s="7">
+        <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
     </row>
@@ -9252,12 +9580,13 @@
       <c r="F85" s="7" t="inlineStr"/>
       <c r="G85" s="7" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr"/>
-      <c r="J85" s="7">
+      <c r="I85" s="5" t="inlineStr"/>
+      <c r="K85" s="7">
         <f>IFERROR(AVERAGE(D85, E85), "")</f>
         <v/>
       </c>
-      <c r="K85" s="7">
-        <f>IFERROR(J85 - C85, "")</f>
+      <c r="L85" s="7">
+        <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
     </row>
@@ -9278,12 +9607,13 @@
       <c r="F86" s="7" t="inlineStr"/>
       <c r="G86" s="7" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr"/>
-      <c r="J86" s="7">
+      <c r="I86" s="5" t="inlineStr"/>
+      <c r="K86" s="7">
         <f>IFERROR(AVERAGE(D86, E86), "")</f>
         <v/>
       </c>
-      <c r="K86" s="7">
-        <f>IFERROR(J86 - C86, "")</f>
+      <c r="L86" s="7">
+        <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
     </row>
@@ -9304,12 +9634,13 @@
       <c r="F87" s="7" t="inlineStr"/>
       <c r="G87" s="7" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr"/>
-      <c r="J87" s="7">
+      <c r="I87" s="5" t="inlineStr"/>
+      <c r="K87" s="7">
         <f>IFERROR(AVERAGE(D87, E87), "")</f>
         <v/>
       </c>
-      <c r="K87" s="7">
-        <f>IFERROR(J87 - C87, "")</f>
+      <c r="L87" s="7">
+        <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
     </row>
@@ -9330,12 +9661,13 @@
       <c r="F88" s="7" t="inlineStr"/>
       <c r="G88" s="7" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr"/>
-      <c r="J88" s="7">
+      <c r="I88" s="5" t="inlineStr"/>
+      <c r="K88" s="7">
         <f>IFERROR(AVERAGE(D88, E88), "")</f>
         <v/>
       </c>
-      <c r="K88" s="7">
-        <f>IFERROR(J88 - C88, "")</f>
+      <c r="L88" s="7">
+        <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
     </row>
@@ -9356,12 +9688,13 @@
       <c r="F89" s="7" t="inlineStr"/>
       <c r="G89" s="7" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr"/>
-      <c r="J89" s="7">
+      <c r="I89" s="5" t="inlineStr"/>
+      <c r="K89" s="7">
         <f>IFERROR(AVERAGE(D89, E89), "")</f>
         <v/>
       </c>
-      <c r="K89" s="7">
-        <f>IFERROR(J89 - C89, "")</f>
+      <c r="L89" s="7">
+        <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
     </row>
@@ -9384,12 +9717,13 @@
       </c>
       <c r="G90" s="7" t="inlineStr"/>
       <c r="H90" s="5" t="inlineStr"/>
-      <c r="J90" s="7">
+      <c r="I90" s="5" t="inlineStr"/>
+      <c r="K90" s="7">
         <f>IFERROR(AVERAGE(D90, E90), "")</f>
         <v/>
       </c>
-      <c r="K90" s="7">
-        <f>IFERROR(J90 - C90, "")</f>
+      <c r="L90" s="7">
+        <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
     </row>
@@ -9410,12 +9744,13 @@
       <c r="F91" s="7" t="inlineStr"/>
       <c r="G91" s="7" t="inlineStr"/>
       <c r="H91" s="5" t="inlineStr"/>
-      <c r="J91" s="7">
+      <c r="I91" s="5" t="inlineStr"/>
+      <c r="K91" s="7">
         <f>IFERROR(AVERAGE(D91, E91), "")</f>
         <v/>
       </c>
-      <c r="K91" s="7">
-        <f>IFERROR(J91 - C91, "")</f>
+      <c r="L91" s="7">
+        <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
         <v/>
       </c>
     </row>
@@ -9436,12 +9771,13 @@
       <c r="F92" s="7" t="inlineStr"/>
       <c r="G92" s="7" t="inlineStr"/>
       <c r="H92" s="5" t="inlineStr"/>
-      <c r="J92" s="7">
+      <c r="I92" s="5" t="inlineStr"/>
+      <c r="K92" s="7">
         <f>IFERROR(AVERAGE(D92, E92), "")</f>
         <v/>
       </c>
-      <c r="K92" s="7">
-        <f>IFERROR(J92 - C92, "")</f>
+      <c r="L92" s="7">
+        <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
     </row>
@@ -9464,12 +9800,13 @@
       </c>
       <c r="G93" s="7" t="inlineStr"/>
       <c r="H93" s="5" t="inlineStr"/>
-      <c r="J93" s="7">
+      <c r="I93" s="5" t="inlineStr"/>
+      <c r="K93" s="7">
         <f>IFERROR(AVERAGE(D93, E93), "")</f>
         <v/>
       </c>
-      <c r="K93" s="7">
-        <f>IFERROR(J93 - C93, "")</f>
+      <c r="L93" s="7">
+        <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
         <v/>
       </c>
     </row>
@@ -9490,12 +9827,13 @@
       <c r="F94" s="7" t="inlineStr"/>
       <c r="G94" s="7" t="inlineStr"/>
       <c r="H94" s="5" t="inlineStr"/>
-      <c r="J94" s="7">
+      <c r="I94" s="5" t="inlineStr"/>
+      <c r="K94" s="7">
         <f>IFERROR(AVERAGE(D94, E94), "")</f>
         <v/>
       </c>
-      <c r="K94" s="7">
-        <f>IFERROR(J94 - C94, "")</f>
+      <c r="L94" s="7">
+        <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
     </row>
@@ -9516,12 +9854,13 @@
       <c r="F95" s="7" t="inlineStr"/>
       <c r="G95" s="7" t="inlineStr"/>
       <c r="H95" s="5" t="inlineStr"/>
-      <c r="J95" s="7">
+      <c r="I95" s="5" t="inlineStr"/>
+      <c r="K95" s="7">
         <f>IFERROR(AVERAGE(D95, E95), "")</f>
         <v/>
       </c>
-      <c r="K95" s="7">
-        <f>IFERROR(J95 - C95, "")</f>
+      <c r="L95" s="7">
+        <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
         <v/>
       </c>
     </row>
@@ -9542,12 +9881,13 @@
       <c r="F96" s="7" t="inlineStr"/>
       <c r="G96" s="7" t="inlineStr"/>
       <c r="H96" s="5" t="inlineStr"/>
-      <c r="J96" s="7">
+      <c r="I96" s="5" t="inlineStr"/>
+      <c r="K96" s="7">
         <f>IFERROR(AVERAGE(D96, E96), "")</f>
         <v/>
       </c>
-      <c r="K96" s="7">
-        <f>IFERROR(J96 - C96, "")</f>
+      <c r="L96" s="7">
+        <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
         <v/>
       </c>
     </row>
@@ -9568,12 +9908,13 @@
       <c r="F97" s="7" t="inlineStr"/>
       <c r="G97" s="7" t="inlineStr"/>
       <c r="H97" s="5" t="inlineStr"/>
-      <c r="J97" s="7">
+      <c r="I97" s="5" t="inlineStr"/>
+      <c r="K97" s="7">
         <f>IFERROR(AVERAGE(D97, E97), "")</f>
         <v/>
       </c>
-      <c r="K97" s="7">
-        <f>IFERROR(J97 - C97, "")</f>
+      <c r="L97" s="7">
+        <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
         <v/>
       </c>
     </row>
@@ -9596,12 +9937,13 @@
       </c>
       <c r="G98" s="7" t="inlineStr"/>
       <c r="H98" s="5" t="inlineStr"/>
-      <c r="J98" s="7">
+      <c r="I98" s="5" t="inlineStr"/>
+      <c r="K98" s="7">
         <f>IFERROR(AVERAGE(D98, E98), "")</f>
         <v/>
       </c>
-      <c r="K98" s="7">
-        <f>IFERROR(J98 - C98, "")</f>
+      <c r="L98" s="7">
+        <f>IF(AND(ISNUMBER(K98), ISNUMBER(C98)), K98 - C98, "")</f>
         <v/>
       </c>
     </row>
@@ -9622,12 +9964,13 @@
       <c r="F99" s="7" t="inlineStr"/>
       <c r="G99" s="7" t="inlineStr"/>
       <c r="H99" s="5" t="inlineStr"/>
-      <c r="J99" s="7">
+      <c r="I99" s="5" t="inlineStr"/>
+      <c r="K99" s="7">
         <f>IFERROR(AVERAGE(D99, E99), "")</f>
         <v/>
       </c>
-      <c r="K99" s="7">
-        <f>IFERROR(J99 - C99, "")</f>
+      <c r="L99" s="7">
+        <f>IF(AND(ISNUMBER(K99), ISNUMBER(C99)), K99 - C99, "")</f>
         <v/>
       </c>
     </row>
@@ -9650,12 +9993,13 @@
       </c>
       <c r="G100" s="7" t="inlineStr"/>
       <c r="H100" s="5" t="inlineStr"/>
-      <c r="J100" s="7">
+      <c r="I100" s="5" t="inlineStr"/>
+      <c r="K100" s="7">
         <f>IFERROR(AVERAGE(D100, E100), "")</f>
         <v/>
       </c>
-      <c r="K100" s="7">
-        <f>IFERROR(J100 - C100, "")</f>
+      <c r="L100" s="7">
+        <f>IF(AND(ISNUMBER(K100), ISNUMBER(C100)), K100 - C100, "")</f>
         <v/>
       </c>
     </row>
@@ -9678,12 +10022,13 @@
       </c>
       <c r="G101" s="7" t="inlineStr"/>
       <c r="H101" s="5" t="inlineStr"/>
-      <c r="J101" s="7">
+      <c r="I101" s="5" t="inlineStr"/>
+      <c r="K101" s="7">
         <f>IFERROR(AVERAGE(D101, E101), "")</f>
         <v/>
       </c>
-      <c r="K101" s="7">
-        <f>IFERROR(J101 - C101, "")</f>
+      <c r="L101" s="7">
+        <f>IF(AND(ISNUMBER(K101), ISNUMBER(C101)), K101 - C101, "")</f>
         <v/>
       </c>
     </row>
@@ -9704,12 +10049,13 @@
       <c r="F102" s="7" t="inlineStr"/>
       <c r="G102" s="7" t="inlineStr"/>
       <c r="H102" s="5" t="inlineStr"/>
-      <c r="J102" s="7">
+      <c r="I102" s="5" t="inlineStr"/>
+      <c r="K102" s="7">
         <f>IFERROR(AVERAGE(D102, E102), "")</f>
         <v/>
       </c>
-      <c r="K102" s="7">
-        <f>IFERROR(J102 - C102, "")</f>
+      <c r="L102" s="7">
+        <f>IF(AND(ISNUMBER(K102), ISNUMBER(C102)), K102 - C102, "")</f>
         <v/>
       </c>
     </row>
@@ -9730,12 +10076,13 @@
       <c r="F103" s="7" t="inlineStr"/>
       <c r="G103" s="7" t="inlineStr"/>
       <c r="H103" s="5" t="inlineStr"/>
-      <c r="J103" s="7">
+      <c r="I103" s="5" t="inlineStr"/>
+      <c r="K103" s="7">
         <f>IFERROR(AVERAGE(D103, E103), "")</f>
         <v/>
       </c>
-      <c r="K103" s="7">
-        <f>IFERROR(J103 - C103, "")</f>
+      <c r="L103" s="7">
+        <f>IF(AND(ISNUMBER(K103), ISNUMBER(C103)), K103 - C103, "")</f>
         <v/>
       </c>
     </row>
@@ -9756,12 +10103,13 @@
       <c r="F104" s="7" t="inlineStr"/>
       <c r="G104" s="7" t="inlineStr"/>
       <c r="H104" s="5" t="inlineStr"/>
-      <c r="J104" s="7">
+      <c r="I104" s="5" t="inlineStr"/>
+      <c r="K104" s="7">
         <f>IFERROR(AVERAGE(D104, E104), "")</f>
         <v/>
       </c>
-      <c r="K104" s="7">
-        <f>IFERROR(J104 - C104, "")</f>
+      <c r="L104" s="7">
+        <f>IF(AND(ISNUMBER(K104), ISNUMBER(C104)), K104 - C104, "")</f>
         <v/>
       </c>
     </row>
@@ -9784,12 +10132,13 @@
       </c>
       <c r="G105" s="7" t="inlineStr"/>
       <c r="H105" s="5" t="inlineStr"/>
-      <c r="J105" s="7">
+      <c r="I105" s="5" t="inlineStr"/>
+      <c r="K105" s="7">
         <f>IFERROR(AVERAGE(D105, E105), "")</f>
         <v/>
       </c>
-      <c r="K105" s="7">
-        <f>IFERROR(J105 - C105, "")</f>
+      <c r="L105" s="7">
+        <f>IF(AND(ISNUMBER(K105), ISNUMBER(C105)), K105 - C105, "")</f>
         <v/>
       </c>
     </row>
@@ -9812,12 +10161,13 @@
       </c>
       <c r="G106" s="7" t="inlineStr"/>
       <c r="H106" s="5" t="inlineStr"/>
-      <c r="J106" s="7">
+      <c r="I106" s="5" t="inlineStr"/>
+      <c r="K106" s="7">
         <f>IFERROR(AVERAGE(D106, E106), "")</f>
         <v/>
       </c>
-      <c r="K106" s="7">
-        <f>IFERROR(J106 - C106, "")</f>
+      <c r="L106" s="7">
+        <f>IF(AND(ISNUMBER(K106), ISNUMBER(C106)), K106 - C106, "")</f>
         <v/>
       </c>
     </row>
@@ -9838,12 +10188,13 @@
       <c r="F107" s="7" t="inlineStr"/>
       <c r="G107" s="7" t="inlineStr"/>
       <c r="H107" s="5" t="inlineStr"/>
-      <c r="J107" s="7">
+      <c r="I107" s="5" t="inlineStr"/>
+      <c r="K107" s="7">
         <f>IFERROR(AVERAGE(D107, E107), "")</f>
         <v/>
       </c>
-      <c r="K107" s="7">
-        <f>IFERROR(J107 - C107, "")</f>
+      <c r="L107" s="7">
+        <f>IF(AND(ISNUMBER(K107), ISNUMBER(C107)), K107 - C107, "")</f>
         <v/>
       </c>
     </row>
@@ -9864,12 +10215,13 @@
       <c r="F108" s="7" t="inlineStr"/>
       <c r="G108" s="7" t="inlineStr"/>
       <c r="H108" s="5" t="inlineStr"/>
-      <c r="J108" s="7">
+      <c r="I108" s="5" t="inlineStr"/>
+      <c r="K108" s="7">
         <f>IFERROR(AVERAGE(D108, E108), "")</f>
         <v/>
       </c>
-      <c r="K108" s="7">
-        <f>IFERROR(J108 - C108, "")</f>
+      <c r="L108" s="7">
+        <f>IF(AND(ISNUMBER(K108), ISNUMBER(C108)), K108 - C108, "")</f>
         <v/>
       </c>
     </row>
@@ -9890,12 +10242,13 @@
       <c r="F109" s="7" t="inlineStr"/>
       <c r="G109" s="7" t="inlineStr"/>
       <c r="H109" s="5" t="inlineStr"/>
-      <c r="J109" s="7">
+      <c r="I109" s="5" t="inlineStr"/>
+      <c r="K109" s="7">
         <f>IFERROR(AVERAGE(D109, E109), "")</f>
         <v/>
       </c>
-      <c r="K109" s="7">
-        <f>IFERROR(J109 - C109, "")</f>
+      <c r="L109" s="7">
+        <f>IF(AND(ISNUMBER(K109), ISNUMBER(C109)), K109 - C109, "")</f>
         <v/>
       </c>
     </row>
@@ -9918,12 +10271,13 @@
       </c>
       <c r="G110" s="7" t="inlineStr"/>
       <c r="H110" s="5" t="inlineStr"/>
-      <c r="J110" s="7">
+      <c r="I110" s="5" t="inlineStr"/>
+      <c r="K110" s="7">
         <f>IFERROR(AVERAGE(D110, E110), "")</f>
         <v/>
       </c>
-      <c r="K110" s="7">
-        <f>IFERROR(J110 - C110, "")</f>
+      <c r="L110" s="7">
+        <f>IF(AND(ISNUMBER(K110), ISNUMBER(C110)), K110 - C110, "")</f>
         <v/>
       </c>
     </row>
@@ -9946,12 +10300,13 @@
       </c>
       <c r="G111" s="7" t="inlineStr"/>
       <c r="H111" s="5" t="inlineStr"/>
-      <c r="J111" s="7">
+      <c r="I111" s="5" t="inlineStr"/>
+      <c r="K111" s="7">
         <f>IFERROR(AVERAGE(D111, E111), "")</f>
         <v/>
       </c>
-      <c r="K111" s="7">
-        <f>IFERROR(J111 - C111, "")</f>
+      <c r="L111" s="7">
+        <f>IF(AND(ISNUMBER(K111), ISNUMBER(C111)), K111 - C111, "")</f>
         <v/>
       </c>
     </row>
@@ -9974,12 +10329,13 @@
       </c>
       <c r="G112" s="7" t="inlineStr"/>
       <c r="H112" s="5" t="inlineStr"/>
-      <c r="J112" s="7">
+      <c r="I112" s="5" t="inlineStr"/>
+      <c r="K112" s="7">
         <f>IFERROR(AVERAGE(D112, E112), "")</f>
         <v/>
       </c>
-      <c r="K112" s="7">
-        <f>IFERROR(J112 - C112, "")</f>
+      <c r="L112" s="7">
+        <f>IF(AND(ISNUMBER(K112), ISNUMBER(C112)), K112 - C112, "")</f>
         <v/>
       </c>
     </row>
@@ -10002,12 +10358,13 @@
       </c>
       <c r="G113" s="7" t="inlineStr"/>
       <c r="H113" s="5" t="inlineStr"/>
-      <c r="J113" s="7">
+      <c r="I113" s="5" t="inlineStr"/>
+      <c r="K113" s="7">
         <f>IFERROR(AVERAGE(D113, E113), "")</f>
         <v/>
       </c>
-      <c r="K113" s="7">
-        <f>IFERROR(J113 - C113, "")</f>
+      <c r="L113" s="7">
+        <f>IF(AND(ISNUMBER(K113), ISNUMBER(C113)), K113 - C113, "")</f>
         <v/>
       </c>
     </row>
@@ -10030,12 +10387,13 @@
       </c>
       <c r="G114" s="7" t="inlineStr"/>
       <c r="H114" s="5" t="inlineStr"/>
-      <c r="J114" s="7">
+      <c r="I114" s="5" t="inlineStr"/>
+      <c r="K114" s="7">
         <f>IFERROR(AVERAGE(D114, E114), "")</f>
         <v/>
       </c>
-      <c r="K114" s="7">
-        <f>IFERROR(J114 - C114, "")</f>
+      <c r="L114" s="7">
+        <f>IF(AND(ISNUMBER(K114), ISNUMBER(C114)), K114 - C114, "")</f>
         <v/>
       </c>
     </row>
@@ -10058,12 +10416,13 @@
       </c>
       <c r="G115" s="7" t="inlineStr"/>
       <c r="H115" s="5" t="inlineStr"/>
-      <c r="J115" s="7">
+      <c r="I115" s="5" t="inlineStr"/>
+      <c r="K115" s="7">
         <f>IFERROR(AVERAGE(D115, E115), "")</f>
         <v/>
       </c>
-      <c r="K115" s="7">
-        <f>IFERROR(J115 - C115, "")</f>
+      <c r="L115" s="7">
+        <f>IF(AND(ISNUMBER(K115), ISNUMBER(C115)), K115 - C115, "")</f>
         <v/>
       </c>
     </row>
@@ -10084,12 +10443,13 @@
       <c r="F116" s="7" t="inlineStr"/>
       <c r="G116" s="7" t="inlineStr"/>
       <c r="H116" s="5" t="inlineStr"/>
-      <c r="J116" s="7">
+      <c r="I116" s="5" t="inlineStr"/>
+      <c r="K116" s="7">
         <f>IFERROR(AVERAGE(D116, E116), "")</f>
         <v/>
       </c>
-      <c r="K116" s="7">
-        <f>IFERROR(J116 - C116, "")</f>
+      <c r="L116" s="7">
+        <f>IF(AND(ISNUMBER(K116), ISNUMBER(C116)), K116 - C116, "")</f>
         <v/>
       </c>
     </row>
@@ -10110,12 +10470,13 @@
       <c r="F117" s="7" t="inlineStr"/>
       <c r="G117" s="7" t="inlineStr"/>
       <c r="H117" s="5" t="inlineStr"/>
-      <c r="J117" s="7">
+      <c r="I117" s="5" t="inlineStr"/>
+      <c r="K117" s="7">
         <f>IFERROR(AVERAGE(D117, E117), "")</f>
         <v/>
       </c>
-      <c r="K117" s="7">
-        <f>IFERROR(J117 - C117, "")</f>
+      <c r="L117" s="7">
+        <f>IF(AND(ISNUMBER(K117), ISNUMBER(C117)), K117 - C117, "")</f>
         <v/>
       </c>
     </row>
@@ -10138,12 +10499,13 @@
       </c>
       <c r="G118" s="7" t="inlineStr"/>
       <c r="H118" s="5" t="inlineStr"/>
-      <c r="J118" s="7">
+      <c r="I118" s="5" t="inlineStr"/>
+      <c r="K118" s="7">
         <f>IFERROR(AVERAGE(D118, E118), "")</f>
         <v/>
       </c>
-      <c r="K118" s="7">
-        <f>IFERROR(J118 - C118, "")</f>
+      <c r="L118" s="7">
+        <f>IF(AND(ISNUMBER(K118), ISNUMBER(C118)), K118 - C118, "")</f>
         <v/>
       </c>
     </row>
@@ -10164,12 +10526,13 @@
       <c r="F119" s="7" t="inlineStr"/>
       <c r="G119" s="7" t="inlineStr"/>
       <c r="H119" s="5" t="inlineStr"/>
-      <c r="J119" s="7">
+      <c r="I119" s="5" t="inlineStr"/>
+      <c r="K119" s="7">
         <f>IFERROR(AVERAGE(D119, E119), "")</f>
         <v/>
       </c>
-      <c r="K119" s="7">
-        <f>IFERROR(J119 - C119, "")</f>
+      <c r="L119" s="7">
+        <f>IF(AND(ISNUMBER(K119), ISNUMBER(C119)), K119 - C119, "")</f>
         <v/>
       </c>
     </row>
@@ -10190,12 +10553,13 @@
       <c r="F120" s="7" t="inlineStr"/>
       <c r="G120" s="7" t="inlineStr"/>
       <c r="H120" s="5" t="inlineStr"/>
-      <c r="J120" s="7">
+      <c r="I120" s="5" t="inlineStr"/>
+      <c r="K120" s="7">
         <f>IFERROR(AVERAGE(D120, E120), "")</f>
         <v/>
       </c>
-      <c r="K120" s="7">
-        <f>IFERROR(J120 - C120, "")</f>
+      <c r="L120" s="7">
+        <f>IF(AND(ISNUMBER(K120), ISNUMBER(C120)), K120 - C120, "")</f>
         <v/>
       </c>
     </row>
@@ -10218,23 +10582,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K120">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L120">
+    <cfRule type="cellIs" priority="4" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1004" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1004" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1004" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H120">
+  <conditionalFormatting sqref="A7:I120">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10247,7 +10614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10262,9 +10629,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10369,16 +10737,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -10403,12 +10776,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -10431,12 +10805,13 @@
       </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -10459,12 +10834,13 @@
       </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -10487,12 +10863,13 @@
       </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -10513,12 +10890,13 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -10541,12 +10919,13 @@
       </c>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -10567,12 +10946,13 @@
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -10595,12 +10975,13 @@
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -10623,12 +11004,13 @@
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -10649,12 +11031,13 @@
       <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -10675,12 +11058,13 @@
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -10701,12 +11085,13 @@
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -10727,12 +11112,13 @@
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -10755,12 +11141,13 @@
       </c>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -10783,12 +11170,13 @@
       </c>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -10809,12 +11197,13 @@
       <c r="F22" s="7" t="inlineStr"/>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -10837,12 +11226,13 @@
       </c>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -10863,12 +11253,13 @@
       <c r="F24" s="7" t="inlineStr"/>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -10889,12 +11280,13 @@
       <c r="F25" s="7" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -10917,12 +11309,13 @@
       </c>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -10943,12 +11336,13 @@
       <c r="F27" s="7" t="inlineStr"/>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -10969,12 +11363,13 @@
       <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -10995,12 +11390,13 @@
       <c r="F29" s="7" t="inlineStr"/>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -11021,12 +11417,13 @@
       <c r="F30" s="7" t="inlineStr"/>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -11049,12 +11446,13 @@
       </c>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -11075,12 +11473,13 @@
       <c r="F32" s="7" t="inlineStr"/>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -11103,12 +11502,13 @@
       </c>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -11129,12 +11529,13 @@
       <c r="F34" s="7" t="inlineStr"/>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -11155,12 +11556,13 @@
       <c r="F35" s="7" t="inlineStr"/>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -11181,12 +11583,13 @@
       <c r="F36" s="7" t="inlineStr"/>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -11209,12 +11612,13 @@
       </c>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -11235,12 +11639,13 @@
       <c r="F38" s="7" t="inlineStr"/>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -11261,12 +11666,13 @@
       <c r="F39" s="7" t="inlineStr"/>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -11289,12 +11695,13 @@
       </c>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -11315,12 +11722,13 @@
       <c r="F41" s="7" t="inlineStr"/>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -11341,12 +11749,13 @@
       <c r="F42" s="7" t="inlineStr"/>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -11369,12 +11778,13 @@
       </c>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -11395,12 +11805,13 @@
       <c r="F44" s="7" t="inlineStr"/>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -11423,12 +11834,13 @@
       </c>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -11451,12 +11863,13 @@
       </c>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -11477,12 +11890,13 @@
       <c r="F47" s="7" t="inlineStr"/>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -11505,12 +11919,13 @@
       </c>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -11531,12 +11946,13 @@
       <c r="F49" s="7" t="inlineStr"/>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -11559,12 +11975,13 @@
       </c>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -11587,12 +12004,13 @@
       </c>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -11613,12 +12031,13 @@
       <c r="F52" s="7" t="inlineStr"/>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -11641,12 +12060,13 @@
       </c>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -11667,12 +12087,13 @@
       <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -11695,12 +12116,13 @@
       </c>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -11721,12 +12143,13 @@
       <c r="F56" s="7" t="inlineStr"/>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -11749,12 +12172,13 @@
       </c>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -11777,12 +12201,13 @@
       </c>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -11803,12 +12228,13 @@
       <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -11831,12 +12257,13 @@
       </c>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -11857,12 +12284,13 @@
       <c r="F61" s="7" t="inlineStr"/>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -11885,12 +12313,13 @@
       </c>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -11911,12 +12340,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -11939,12 +12369,13 @@
       </c>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -11967,12 +12398,13 @@
       </c>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -11993,12 +12425,13 @@
       <c r="F66" s="7" t="inlineStr"/>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -12021,12 +12454,13 @@
       </c>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -12047,12 +12481,13 @@
       <c r="F68" s="7" t="inlineStr"/>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -12075,12 +12510,13 @@
       </c>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -12103,12 +12539,13 @@
       </c>
       <c r="G70" s="7" t="inlineStr"/>
       <c r="H70" s="5" t="inlineStr"/>
-      <c r="J70" s="7">
+      <c r="I70" s="5" t="inlineStr"/>
+      <c r="K70" s="7">
         <f>IFERROR(AVERAGE(D70, E70), "")</f>
         <v/>
       </c>
-      <c r="K70" s="7">
-        <f>IFERROR(J70 - C70, "")</f>
+      <c r="L70" s="7">
+        <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
     </row>
@@ -12129,12 +12566,13 @@
       <c r="F71" s="7" t="inlineStr"/>
       <c r="G71" s="7" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr"/>
-      <c r="J71" s="7">
+      <c r="I71" s="5" t="inlineStr"/>
+      <c r="K71" s="7">
         <f>IFERROR(AVERAGE(D71, E71), "")</f>
         <v/>
       </c>
-      <c r="K71" s="7">
-        <f>IFERROR(J71 - C71, "")</f>
+      <c r="L71" s="7">
+        <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
     </row>
@@ -12157,12 +12595,13 @@
       </c>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
-      <c r="J72" s="7">
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="K72" s="7">
         <f>IFERROR(AVERAGE(D72, E72), "")</f>
         <v/>
       </c>
-      <c r="K72" s="7">
-        <f>IFERROR(J72 - C72, "")</f>
+      <c r="L72" s="7">
+        <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
     </row>
@@ -12185,12 +12624,13 @@
       </c>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
-      <c r="J73" s="7">
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="K73" s="7">
         <f>IFERROR(AVERAGE(D73, E73), "")</f>
         <v/>
       </c>
-      <c r="K73" s="7">
-        <f>IFERROR(J73 - C73, "")</f>
+      <c r="L73" s="7">
+        <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
     </row>
@@ -12211,12 +12651,13 @@
       <c r="F74" s="7" t="inlineStr"/>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
-      <c r="J74" s="7">
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="K74" s="7">
         <f>IFERROR(AVERAGE(D74, E74), "")</f>
         <v/>
       </c>
-      <c r="K74" s="7">
-        <f>IFERROR(J74 - C74, "")</f>
+      <c r="L74" s="7">
+        <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
     </row>
@@ -12237,12 +12678,13 @@
       <c r="F75" s="7" t="inlineStr"/>
       <c r="G75" s="7" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
-      <c r="J75" s="7">
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="K75" s="7">
         <f>IFERROR(AVERAGE(D75, E75), "")</f>
         <v/>
       </c>
-      <c r="K75" s="7">
-        <f>IFERROR(J75 - C75, "")</f>
+      <c r="L75" s="7">
+        <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
     </row>
@@ -12265,12 +12707,13 @@
       </c>
       <c r="G76" s="7" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr"/>
-      <c r="J76" s="7">
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="K76" s="7">
         <f>IFERROR(AVERAGE(D76, E76), "")</f>
         <v/>
       </c>
-      <c r="K76" s="7">
-        <f>IFERROR(J76 - C76, "")</f>
+      <c r="L76" s="7">
+        <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
     </row>
@@ -12291,12 +12734,13 @@
       <c r="F77" s="7" t="inlineStr"/>
       <c r="G77" s="7" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr"/>
-      <c r="J77" s="7">
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="K77" s="7">
         <f>IFERROR(AVERAGE(D77, E77), "")</f>
         <v/>
       </c>
-      <c r="K77" s="7">
-        <f>IFERROR(J77 - C77, "")</f>
+      <c r="L77" s="7">
+        <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
     </row>
@@ -12317,12 +12761,13 @@
       <c r="F78" s="7" t="inlineStr"/>
       <c r="G78" s="7" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
-      <c r="J78" s="7">
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="K78" s="7">
         <f>IFERROR(AVERAGE(D78, E78), "")</f>
         <v/>
       </c>
-      <c r="K78" s="7">
-        <f>IFERROR(J78 - C78, "")</f>
+      <c r="L78" s="7">
+        <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
     </row>
@@ -12345,12 +12790,13 @@
       </c>
       <c r="G79" s="7" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
-      <c r="J79" s="7">
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="K79" s="7">
         <f>IFERROR(AVERAGE(D79, E79), "")</f>
         <v/>
       </c>
-      <c r="K79" s="7">
-        <f>IFERROR(J79 - C79, "")</f>
+      <c r="L79" s="7">
+        <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
     </row>
@@ -12373,12 +12819,13 @@
       </c>
       <c r="G80" s="7" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr"/>
-      <c r="J80" s="7">
+      <c r="I80" s="5" t="inlineStr"/>
+      <c r="K80" s="7">
         <f>IFERROR(AVERAGE(D80, E80), "")</f>
         <v/>
       </c>
-      <c r="K80" s="7">
-        <f>IFERROR(J80 - C80, "")</f>
+      <c r="L80" s="7">
+        <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
     </row>
@@ -12401,12 +12848,13 @@
       </c>
       <c r="G81" s="7" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr"/>
-      <c r="J81" s="7">
+      <c r="I81" s="5" t="inlineStr"/>
+      <c r="K81" s="7">
         <f>IFERROR(AVERAGE(D81, E81), "")</f>
         <v/>
       </c>
-      <c r="K81" s="7">
-        <f>IFERROR(J81 - C81, "")</f>
+      <c r="L81" s="7">
+        <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
     </row>
@@ -12429,12 +12877,13 @@
       </c>
       <c r="G82" s="7" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr"/>
-      <c r="J82" s="7">
+      <c r="I82" s="5" t="inlineStr"/>
+      <c r="K82" s="7">
         <f>IFERROR(AVERAGE(D82, E82), "")</f>
         <v/>
       </c>
-      <c r="K82" s="7">
-        <f>IFERROR(J82 - C82, "")</f>
+      <c r="L82" s="7">
+        <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
     </row>
@@ -12457,12 +12906,13 @@
       </c>
       <c r="G83" s="7" t="inlineStr"/>
       <c r="H83" s="5" t="inlineStr"/>
-      <c r="J83" s="7">
+      <c r="I83" s="5" t="inlineStr"/>
+      <c r="K83" s="7">
         <f>IFERROR(AVERAGE(D83, E83), "")</f>
         <v/>
       </c>
-      <c r="K83" s="7">
-        <f>IFERROR(J83 - C83, "")</f>
+      <c r="L83" s="7">
+        <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
     </row>
@@ -12485,12 +12935,13 @@
       </c>
       <c r="G84" s="7" t="inlineStr"/>
       <c r="H84" s="5" t="inlineStr"/>
-      <c r="J84" s="7">
+      <c r="I84" s="5" t="inlineStr"/>
+      <c r="K84" s="7">
         <f>IFERROR(AVERAGE(D84, E84), "")</f>
         <v/>
       </c>
-      <c r="K84" s="7">
-        <f>IFERROR(J84 - C84, "")</f>
+      <c r="L84" s="7">
+        <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
     </row>
@@ -12511,12 +12962,13 @@
       <c r="F85" s="7" t="inlineStr"/>
       <c r="G85" s="7" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr"/>
-      <c r="J85" s="7">
+      <c r="I85" s="5" t="inlineStr"/>
+      <c r="K85" s="7">
         <f>IFERROR(AVERAGE(D85, E85), "")</f>
         <v/>
       </c>
-      <c r="K85" s="7">
-        <f>IFERROR(J85 - C85, "")</f>
+      <c r="L85" s="7">
+        <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
     </row>
@@ -12537,12 +12989,13 @@
       <c r="F86" s="7" t="inlineStr"/>
       <c r="G86" s="7" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr"/>
-      <c r="J86" s="7">
+      <c r="I86" s="5" t="inlineStr"/>
+      <c r="K86" s="7">
         <f>IFERROR(AVERAGE(D86, E86), "")</f>
         <v/>
       </c>
-      <c r="K86" s="7">
-        <f>IFERROR(J86 - C86, "")</f>
+      <c r="L86" s="7">
+        <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
     </row>
@@ -12565,12 +13018,13 @@
       </c>
       <c r="G87" s="7" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr"/>
-      <c r="J87" s="7">
+      <c r="I87" s="5" t="inlineStr"/>
+      <c r="K87" s="7">
         <f>IFERROR(AVERAGE(D87, E87), "")</f>
         <v/>
       </c>
-      <c r="K87" s="7">
-        <f>IFERROR(J87 - C87, "")</f>
+      <c r="L87" s="7">
+        <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
     </row>
@@ -12593,12 +13047,13 @@
       </c>
       <c r="G88" s="7" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr"/>
-      <c r="J88" s="7">
+      <c r="I88" s="5" t="inlineStr"/>
+      <c r="K88" s="7">
         <f>IFERROR(AVERAGE(D88, E88), "")</f>
         <v/>
       </c>
-      <c r="K88" s="7">
-        <f>IFERROR(J88 - C88, "")</f>
+      <c r="L88" s="7">
+        <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
     </row>
@@ -12621,12 +13076,13 @@
       </c>
       <c r="G89" s="7" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr"/>
-      <c r="J89" s="7">
+      <c r="I89" s="5" t="inlineStr"/>
+      <c r="K89" s="7">
         <f>IFERROR(AVERAGE(D89, E89), "")</f>
         <v/>
       </c>
-      <c r="K89" s="7">
-        <f>IFERROR(J89 - C89, "")</f>
+      <c r="L89" s="7">
+        <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
     </row>
@@ -12647,12 +13103,13 @@
       <c r="F90" s="7" t="inlineStr"/>
       <c r="G90" s="7" t="inlineStr"/>
       <c r="H90" s="5" t="inlineStr"/>
-      <c r="J90" s="7">
+      <c r="I90" s="5" t="inlineStr"/>
+      <c r="K90" s="7">
         <f>IFERROR(AVERAGE(D90, E90), "")</f>
         <v/>
       </c>
-      <c r="K90" s="7">
-        <f>IFERROR(J90 - C90, "")</f>
+      <c r="L90" s="7">
+        <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
     </row>
@@ -12673,12 +13130,13 @@
       <c r="F91" s="7" t="inlineStr"/>
       <c r="G91" s="7" t="inlineStr"/>
       <c r="H91" s="5" t="inlineStr"/>
-      <c r="J91" s="7">
+      <c r="I91" s="5" t="inlineStr"/>
+      <c r="K91" s="7">
         <f>IFERROR(AVERAGE(D91, E91), "")</f>
         <v/>
       </c>
-      <c r="K91" s="7">
-        <f>IFERROR(J91 - C91, "")</f>
+      <c r="L91" s="7">
+        <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
         <v/>
       </c>
     </row>
@@ -12699,12 +13157,13 @@
       <c r="F92" s="7" t="inlineStr"/>
       <c r="G92" s="7" t="inlineStr"/>
       <c r="H92" s="5" t="inlineStr"/>
-      <c r="J92" s="7">
+      <c r="I92" s="5" t="inlineStr"/>
+      <c r="K92" s="7">
         <f>IFERROR(AVERAGE(D92, E92), "")</f>
         <v/>
       </c>
-      <c r="K92" s="7">
-        <f>IFERROR(J92 - C92, "")</f>
+      <c r="L92" s="7">
+        <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
     </row>
@@ -12727,12 +13186,13 @@
       </c>
       <c r="G93" s="7" t="inlineStr"/>
       <c r="H93" s="5" t="inlineStr"/>
-      <c r="J93" s="7">
+      <c r="I93" s="5" t="inlineStr"/>
+      <c r="K93" s="7">
         <f>IFERROR(AVERAGE(D93, E93), "")</f>
         <v/>
       </c>
-      <c r="K93" s="7">
-        <f>IFERROR(J93 - C93, "")</f>
+      <c r="L93" s="7">
+        <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
         <v/>
       </c>
     </row>
@@ -12755,12 +13215,13 @@
       </c>
       <c r="G94" s="7" t="inlineStr"/>
       <c r="H94" s="5" t="inlineStr"/>
-      <c r="J94" s="7">
+      <c r="I94" s="5" t="inlineStr"/>
+      <c r="K94" s="7">
         <f>IFERROR(AVERAGE(D94, E94), "")</f>
         <v/>
       </c>
-      <c r="K94" s="7">
-        <f>IFERROR(J94 - C94, "")</f>
+      <c r="L94" s="7">
+        <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
     </row>
@@ -12783,12 +13244,13 @@
       </c>
       <c r="G95" s="7" t="inlineStr"/>
       <c r="H95" s="5" t="inlineStr"/>
-      <c r="J95" s="7">
+      <c r="I95" s="5" t="inlineStr"/>
+      <c r="K95" s="7">
         <f>IFERROR(AVERAGE(D95, E95), "")</f>
         <v/>
       </c>
-      <c r="K95" s="7">
-        <f>IFERROR(J95 - C95, "")</f>
+      <c r="L95" s="7">
+        <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
         <v/>
       </c>
     </row>
@@ -12811,12 +13273,13 @@
       </c>
       <c r="G96" s="7" t="inlineStr"/>
       <c r="H96" s="5" t="inlineStr"/>
-      <c r="J96" s="7">
+      <c r="I96" s="5" t="inlineStr"/>
+      <c r="K96" s="7">
         <f>IFERROR(AVERAGE(D96, E96), "")</f>
         <v/>
       </c>
-      <c r="K96" s="7">
-        <f>IFERROR(J96 - C96, "")</f>
+      <c r="L96" s="7">
+        <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
         <v/>
       </c>
     </row>
@@ -12837,12 +13300,13 @@
       <c r="F97" s="7" t="inlineStr"/>
       <c r="G97" s="7" t="inlineStr"/>
       <c r="H97" s="5" t="inlineStr"/>
-      <c r="J97" s="7">
+      <c r="I97" s="5" t="inlineStr"/>
+      <c r="K97" s="7">
         <f>IFERROR(AVERAGE(D97, E97), "")</f>
         <v/>
       </c>
-      <c r="K97" s="7">
-        <f>IFERROR(J97 - C97, "")</f>
+      <c r="L97" s="7">
+        <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
         <v/>
       </c>
     </row>
@@ -12865,23 +13329,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K97">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L97">
+    <cfRule type="cellIs" priority="5" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1005" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1005" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1005" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H97">
+  <conditionalFormatting sqref="A7:I97">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12894,7 +13361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12909,9 +13376,10 @@
     <col width="10.5" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
     <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="7.5" customWidth="1" min="8" max="8"/>
+    <col width="7.5" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13016,16 +13484,21 @@
       </c>
       <c r="H6" s="4" t="inlineStr">
         <is>
-          <t>Bemerkung</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="inlineStr">
+          <t xml:space="preserve"> Aus </t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>Bruch</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>D_2023</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>Diff D</t>
         </is>
@@ -13050,12 +13523,13 @@
       </c>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="5" t="inlineStr"/>
-      <c r="J7" s="7">
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="K7" s="7">
         <f>IFERROR(AVERAGE(D7, E7), "")</f>
         <v/>
       </c>
-      <c r="K7" s="7">
-        <f>IFERROR(J7 - C7, "")</f>
+      <c r="L7" s="7">
+        <f>IF(AND(ISNUMBER(K7), ISNUMBER(C7)), K7 - C7, "")</f>
         <v/>
       </c>
     </row>
@@ -13076,12 +13550,13 @@
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
-      <c r="J8" s="7">
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="K8" s="7">
         <f>IFERROR(AVERAGE(D8, E8), "")</f>
         <v/>
       </c>
-      <c r="K8" s="7">
-        <f>IFERROR(J8 - C8, "")</f>
+      <c r="L8" s="7">
+        <f>IF(AND(ISNUMBER(K8), ISNUMBER(C8)), K8 - C8, "")</f>
         <v/>
       </c>
     </row>
@@ -13104,12 +13579,13 @@
       </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
-      <c r="J9" s="7">
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="K9" s="7">
         <f>IFERROR(AVERAGE(D9, E9), "")</f>
         <v/>
       </c>
-      <c r="K9" s="7">
-        <f>IFERROR(J9 - C9, "")</f>
+      <c r="L9" s="7">
+        <f>IF(AND(ISNUMBER(K9), ISNUMBER(C9)), K9 - C9, "")</f>
         <v/>
       </c>
     </row>
@@ -13130,12 +13606,13 @@
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="5" t="inlineStr"/>
-      <c r="J10" s="7">
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="K10" s="7">
         <f>IFERROR(AVERAGE(D10, E10), "")</f>
         <v/>
       </c>
-      <c r="K10" s="7">
-        <f>IFERROR(J10 - C10, "")</f>
+      <c r="L10" s="7">
+        <f>IF(AND(ISNUMBER(K10), ISNUMBER(C10)), K10 - C10, "")</f>
         <v/>
       </c>
     </row>
@@ -13158,12 +13635,13 @@
       </c>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
-      <c r="J11" s="7">
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="K11" s="7">
         <f>IFERROR(AVERAGE(D11, E11), "")</f>
         <v/>
       </c>
-      <c r="K11" s="7">
-        <f>IFERROR(J11 - C11, "")</f>
+      <c r="L11" s="7">
+        <f>IF(AND(ISNUMBER(K11), ISNUMBER(C11)), K11 - C11, "")</f>
         <v/>
       </c>
     </row>
@@ -13184,12 +13662,13 @@
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
-      <c r="J12" s="7">
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="K12" s="7">
         <f>IFERROR(AVERAGE(D12, E12), "")</f>
         <v/>
       </c>
-      <c r="K12" s="7">
-        <f>IFERROR(J12 - C12, "")</f>
+      <c r="L12" s="7">
+        <f>IF(AND(ISNUMBER(K12), ISNUMBER(C12)), K12 - C12, "")</f>
         <v/>
       </c>
     </row>
@@ -13212,12 +13691,13 @@
       </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="5" t="inlineStr"/>
-      <c r="J13" s="7">
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="K13" s="7">
         <f>IFERROR(AVERAGE(D13, E13), "")</f>
         <v/>
       </c>
-      <c r="K13" s="7">
-        <f>IFERROR(J13 - C13, "")</f>
+      <c r="L13" s="7">
+        <f>IF(AND(ISNUMBER(K13), ISNUMBER(C13)), K13 - C13, "")</f>
         <v/>
       </c>
     </row>
@@ -13238,12 +13718,13 @@
       <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
-      <c r="J14" s="7">
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="K14" s="7">
         <f>IFERROR(AVERAGE(D14, E14), "")</f>
         <v/>
       </c>
-      <c r="K14" s="7">
-        <f>IFERROR(J14 - C14, "")</f>
+      <c r="L14" s="7">
+        <f>IF(AND(ISNUMBER(K14), ISNUMBER(C14)), K14 - C14, "")</f>
         <v/>
       </c>
     </row>
@@ -13266,12 +13747,13 @@
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
-      <c r="J15" s="7">
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="K15" s="7">
         <f>IFERROR(AVERAGE(D15, E15), "")</f>
         <v/>
       </c>
-      <c r="K15" s="7">
-        <f>IFERROR(J15 - C15, "")</f>
+      <c r="L15" s="7">
+        <f>IF(AND(ISNUMBER(K15), ISNUMBER(C15)), K15 - C15, "")</f>
         <v/>
       </c>
     </row>
@@ -13294,12 +13776,13 @@
       </c>
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="inlineStr"/>
+      <c r="K16" s="7">
         <f>IFERROR(AVERAGE(D16, E16), "")</f>
         <v/>
       </c>
-      <c r="K16" s="7">
-        <f>IFERROR(J16 - C16, "")</f>
+      <c r="L16" s="7">
+        <f>IF(AND(ISNUMBER(K16), ISNUMBER(C16)), K16 - C16, "")</f>
         <v/>
       </c>
     </row>
@@ -13322,12 +13805,13 @@
       </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="5" t="inlineStr"/>
-      <c r="J17" s="7">
+      <c r="I17" s="5" t="inlineStr"/>
+      <c r="K17" s="7">
         <f>IFERROR(AVERAGE(D17, E17), "")</f>
         <v/>
       </c>
-      <c r="K17" s="7">
-        <f>IFERROR(J17 - C17, "")</f>
+      <c r="L17" s="7">
+        <f>IF(AND(ISNUMBER(K17), ISNUMBER(C17)), K17 - C17, "")</f>
         <v/>
       </c>
     </row>
@@ -13350,12 +13834,13 @@
       </c>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="5" t="inlineStr"/>
-      <c r="J18" s="7">
+      <c r="I18" s="5" t="inlineStr"/>
+      <c r="K18" s="7">
         <f>IFERROR(AVERAGE(D18, E18), "")</f>
         <v/>
       </c>
-      <c r="K18" s="7">
-        <f>IFERROR(J18 - C18, "")</f>
+      <c r="L18" s="7">
+        <f>IF(AND(ISNUMBER(K18), ISNUMBER(C18)), K18 - C18, "")</f>
         <v/>
       </c>
     </row>
@@ -13378,12 +13863,13 @@
       </c>
       <c r="G19" s="7" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
-      <c r="J19" s="7">
+      <c r="I19" s="5" t="inlineStr"/>
+      <c r="K19" s="7">
         <f>IFERROR(AVERAGE(D19, E19), "")</f>
         <v/>
       </c>
-      <c r="K19" s="7">
-        <f>IFERROR(J19 - C19, "")</f>
+      <c r="L19" s="7">
+        <f>IF(AND(ISNUMBER(K19), ISNUMBER(C19)), K19 - C19, "")</f>
         <v/>
       </c>
     </row>
@@ -13406,12 +13892,13 @@
       </c>
       <c r="G20" s="7" t="inlineStr"/>
       <c r="H20" s="5" t="inlineStr"/>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="inlineStr"/>
+      <c r="K20" s="7">
         <f>IFERROR(AVERAGE(D20, E20), "")</f>
         <v/>
       </c>
-      <c r="K20" s="7">
-        <f>IFERROR(J20 - C20, "")</f>
+      <c r="L20" s="7">
+        <f>IF(AND(ISNUMBER(K20), ISNUMBER(C20)), K20 - C20, "")</f>
         <v/>
       </c>
     </row>
@@ -13434,12 +13921,13 @@
       </c>
       <c r="G21" s="7" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
-      <c r="J21" s="7">
+      <c r="I21" s="5" t="inlineStr"/>
+      <c r="K21" s="7">
         <f>IFERROR(AVERAGE(D21, E21), "")</f>
         <v/>
       </c>
-      <c r="K21" s="7">
-        <f>IFERROR(J21 - C21, "")</f>
+      <c r="L21" s="7">
+        <f>IF(AND(ISNUMBER(K21), ISNUMBER(C21)), K21 - C21, "")</f>
         <v/>
       </c>
     </row>
@@ -13462,12 +13950,13 @@
       </c>
       <c r="G22" s="7" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
-      <c r="J22" s="7">
+      <c r="I22" s="5" t="inlineStr"/>
+      <c r="K22" s="7">
         <f>IFERROR(AVERAGE(D22, E22), "")</f>
         <v/>
       </c>
-      <c r="K22" s="7">
-        <f>IFERROR(J22 - C22, "")</f>
+      <c r="L22" s="7">
+        <f>IF(AND(ISNUMBER(K22), ISNUMBER(C22)), K22 - C22, "")</f>
         <v/>
       </c>
     </row>
@@ -13490,12 +13979,13 @@
       </c>
       <c r="G23" s="7" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
-      <c r="J23" s="7">
+      <c r="I23" s="5" t="inlineStr"/>
+      <c r="K23" s="7">
         <f>IFERROR(AVERAGE(D23, E23), "")</f>
         <v/>
       </c>
-      <c r="K23" s="7">
-        <f>IFERROR(J23 - C23, "")</f>
+      <c r="L23" s="7">
+        <f>IF(AND(ISNUMBER(K23), ISNUMBER(C23)), K23 - C23, "")</f>
         <v/>
       </c>
     </row>
@@ -13518,12 +14008,13 @@
       </c>
       <c r="G24" s="7" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="inlineStr"/>
+      <c r="K24" s="7">
         <f>IFERROR(AVERAGE(D24, E24), "")</f>
         <v/>
       </c>
-      <c r="K24" s="7">
-        <f>IFERROR(J24 - C24, "")</f>
+      <c r="L24" s="7">
+        <f>IF(AND(ISNUMBER(K24), ISNUMBER(C24)), K24 - C24, "")</f>
         <v/>
       </c>
     </row>
@@ -13544,12 +14035,13 @@
       <c r="F25" s="7" t="inlineStr"/>
       <c r="G25" s="7" t="inlineStr"/>
       <c r="H25" s="5" t="inlineStr"/>
-      <c r="J25" s="7">
+      <c r="I25" s="5" t="inlineStr"/>
+      <c r="K25" s="7">
         <f>IFERROR(AVERAGE(D25, E25), "")</f>
         <v/>
       </c>
-      <c r="K25" s="7">
-        <f>IFERROR(J25 - C25, "")</f>
+      <c r="L25" s="7">
+        <f>IF(AND(ISNUMBER(K25), ISNUMBER(C25)), K25 - C25, "")</f>
         <v/>
       </c>
     </row>
@@ -13572,12 +14064,13 @@
       </c>
       <c r="G26" s="7" t="inlineStr"/>
       <c r="H26" s="5" t="inlineStr"/>
-      <c r="J26" s="7">
+      <c r="I26" s="5" t="inlineStr"/>
+      <c r="K26" s="7">
         <f>IFERROR(AVERAGE(D26, E26), "")</f>
         <v/>
       </c>
-      <c r="K26" s="7">
-        <f>IFERROR(J26 - C26, "")</f>
+      <c r="L26" s="7">
+        <f>IF(AND(ISNUMBER(K26), ISNUMBER(C26)), K26 - C26, "")</f>
         <v/>
       </c>
     </row>
@@ -13598,12 +14091,13 @@
       <c r="F27" s="7" t="inlineStr"/>
       <c r="G27" s="7" t="inlineStr"/>
       <c r="H27" s="5" t="inlineStr"/>
-      <c r="J27" s="7">
+      <c r="I27" s="5" t="inlineStr"/>
+      <c r="K27" s="7">
         <f>IFERROR(AVERAGE(D27, E27), "")</f>
         <v/>
       </c>
-      <c r="K27" s="7">
-        <f>IFERROR(J27 - C27, "")</f>
+      <c r="L27" s="7">
+        <f>IF(AND(ISNUMBER(K27), ISNUMBER(C27)), K27 - C27, "")</f>
         <v/>
       </c>
     </row>
@@ -13624,12 +14118,13 @@
       <c r="F28" s="7" t="inlineStr"/>
       <c r="G28" s="7" t="inlineStr"/>
       <c r="H28" s="5" t="inlineStr"/>
-      <c r="J28" s="7">
+      <c r="I28" s="5" t="inlineStr"/>
+      <c r="K28" s="7">
         <f>IFERROR(AVERAGE(D28, E28), "")</f>
         <v/>
       </c>
-      <c r="K28" s="7">
-        <f>IFERROR(J28 - C28, "")</f>
+      <c r="L28" s="7">
+        <f>IF(AND(ISNUMBER(K28), ISNUMBER(C28)), K28 - C28, "")</f>
         <v/>
       </c>
     </row>
@@ -13652,12 +14147,13 @@
       </c>
       <c r="G29" s="7" t="inlineStr"/>
       <c r="H29" s="5" t="inlineStr"/>
-      <c r="J29" s="7">
+      <c r="I29" s="5" t="inlineStr"/>
+      <c r="K29" s="7">
         <f>IFERROR(AVERAGE(D29, E29), "")</f>
         <v/>
       </c>
-      <c r="K29" s="7">
-        <f>IFERROR(J29 - C29, "")</f>
+      <c r="L29" s="7">
+        <f>IF(AND(ISNUMBER(K29), ISNUMBER(C29)), K29 - C29, "")</f>
         <v/>
       </c>
     </row>
@@ -13680,12 +14176,13 @@
       </c>
       <c r="G30" s="7" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr"/>
-      <c r="J30" s="7">
+      <c r="I30" s="5" t="inlineStr"/>
+      <c r="K30" s="7">
         <f>IFERROR(AVERAGE(D30, E30), "")</f>
         <v/>
       </c>
-      <c r="K30" s="7">
-        <f>IFERROR(J30 - C30, "")</f>
+      <c r="L30" s="7">
+        <f>IF(AND(ISNUMBER(K30), ISNUMBER(C30)), K30 - C30, "")</f>
         <v/>
       </c>
     </row>
@@ -13706,12 +14203,13 @@
       <c r="F31" s="7" t="inlineStr"/>
       <c r="G31" s="7" t="inlineStr"/>
       <c r="H31" s="5" t="inlineStr"/>
-      <c r="J31" s="7">
+      <c r="I31" s="5" t="inlineStr"/>
+      <c r="K31" s="7">
         <f>IFERROR(AVERAGE(D31, E31), "")</f>
         <v/>
       </c>
-      <c r="K31" s="7">
-        <f>IFERROR(J31 - C31, "")</f>
+      <c r="L31" s="7">
+        <f>IF(AND(ISNUMBER(K31), ISNUMBER(C31)), K31 - C31, "")</f>
         <v/>
       </c>
     </row>
@@ -13732,12 +14230,13 @@
       <c r="F32" s="7" t="inlineStr"/>
       <c r="G32" s="7" t="inlineStr"/>
       <c r="H32" s="5" t="inlineStr"/>
-      <c r="J32" s="7">
+      <c r="I32" s="5" t="inlineStr"/>
+      <c r="K32" s="7">
         <f>IFERROR(AVERAGE(D32, E32), "")</f>
         <v/>
       </c>
-      <c r="K32" s="7">
-        <f>IFERROR(J32 - C32, "")</f>
+      <c r="L32" s="7">
+        <f>IF(AND(ISNUMBER(K32), ISNUMBER(C32)), K32 - C32, "")</f>
         <v/>
       </c>
     </row>
@@ -13758,12 +14257,13 @@
       <c r="F33" s="7" t="inlineStr"/>
       <c r="G33" s="7" t="inlineStr"/>
       <c r="H33" s="5" t="inlineStr"/>
-      <c r="J33" s="7">
+      <c r="I33" s="5" t="inlineStr"/>
+      <c r="K33" s="7">
         <f>IFERROR(AVERAGE(D33, E33), "")</f>
         <v/>
       </c>
-      <c r="K33" s="7">
-        <f>IFERROR(J33 - C33, "")</f>
+      <c r="L33" s="7">
+        <f>IF(AND(ISNUMBER(K33), ISNUMBER(C33)), K33 - C33, "")</f>
         <v/>
       </c>
     </row>
@@ -13786,12 +14286,13 @@
       </c>
       <c r="G34" s="7" t="inlineStr"/>
       <c r="H34" s="5" t="inlineStr"/>
-      <c r="J34" s="7">
+      <c r="I34" s="5" t="inlineStr"/>
+      <c r="K34" s="7">
         <f>IFERROR(AVERAGE(D34, E34), "")</f>
         <v/>
       </c>
-      <c r="K34" s="7">
-        <f>IFERROR(J34 - C34, "")</f>
+      <c r="L34" s="7">
+        <f>IF(AND(ISNUMBER(K34), ISNUMBER(C34)), K34 - C34, "")</f>
         <v/>
       </c>
     </row>
@@ -13814,12 +14315,13 @@
       </c>
       <c r="G35" s="7" t="inlineStr"/>
       <c r="H35" s="5" t="inlineStr"/>
-      <c r="J35" s="7">
+      <c r="I35" s="5" t="inlineStr"/>
+      <c r="K35" s="7">
         <f>IFERROR(AVERAGE(D35, E35), "")</f>
         <v/>
       </c>
-      <c r="K35" s="7">
-        <f>IFERROR(J35 - C35, "")</f>
+      <c r="L35" s="7">
+        <f>IF(AND(ISNUMBER(K35), ISNUMBER(C35)), K35 - C35, "")</f>
         <v/>
       </c>
     </row>
@@ -13842,12 +14344,13 @@
       </c>
       <c r="G36" s="7" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr"/>
-      <c r="J36" s="7">
+      <c r="I36" s="5" t="inlineStr"/>
+      <c r="K36" s="7">
         <f>IFERROR(AVERAGE(D36, E36), "")</f>
         <v/>
       </c>
-      <c r="K36" s="7">
-        <f>IFERROR(J36 - C36, "")</f>
+      <c r="L36" s="7">
+        <f>IF(AND(ISNUMBER(K36), ISNUMBER(C36)), K36 - C36, "")</f>
         <v/>
       </c>
     </row>
@@ -13868,12 +14371,13 @@
       <c r="F37" s="7" t="inlineStr"/>
       <c r="G37" s="7" t="inlineStr"/>
       <c r="H37" s="5" t="inlineStr"/>
-      <c r="J37" s="7">
+      <c r="I37" s="5" t="inlineStr"/>
+      <c r="K37" s="7">
         <f>IFERROR(AVERAGE(D37, E37), "")</f>
         <v/>
       </c>
-      <c r="K37" s="7">
-        <f>IFERROR(J37 - C37, "")</f>
+      <c r="L37" s="7">
+        <f>IF(AND(ISNUMBER(K37), ISNUMBER(C37)), K37 - C37, "")</f>
         <v/>
       </c>
     </row>
@@ -13896,12 +14400,13 @@
       </c>
       <c r="G38" s="7" t="inlineStr"/>
       <c r="H38" s="5" t="inlineStr"/>
-      <c r="J38" s="7">
+      <c r="I38" s="5" t="inlineStr"/>
+      <c r="K38" s="7">
         <f>IFERROR(AVERAGE(D38, E38), "")</f>
         <v/>
       </c>
-      <c r="K38" s="7">
-        <f>IFERROR(J38 - C38, "")</f>
+      <c r="L38" s="7">
+        <f>IF(AND(ISNUMBER(K38), ISNUMBER(C38)), K38 - C38, "")</f>
         <v/>
       </c>
     </row>
@@ -13924,12 +14429,13 @@
       </c>
       <c r="G39" s="7" t="inlineStr"/>
       <c r="H39" s="5" t="inlineStr"/>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="inlineStr"/>
+      <c r="K39" s="7">
         <f>IFERROR(AVERAGE(D39, E39), "")</f>
         <v/>
       </c>
-      <c r="K39" s="7">
-        <f>IFERROR(J39 - C39, "")</f>
+      <c r="L39" s="7">
+        <f>IF(AND(ISNUMBER(K39), ISNUMBER(C39)), K39 - C39, "")</f>
         <v/>
       </c>
     </row>
@@ -13952,12 +14458,13 @@
       </c>
       <c r="G40" s="7" t="inlineStr"/>
       <c r="H40" s="5" t="inlineStr"/>
-      <c r="J40" s="7">
+      <c r="I40" s="5" t="inlineStr"/>
+      <c r="K40" s="7">
         <f>IFERROR(AVERAGE(D40, E40), "")</f>
         <v/>
       </c>
-      <c r="K40" s="7">
-        <f>IFERROR(J40 - C40, "")</f>
+      <c r="L40" s="7">
+        <f>IF(AND(ISNUMBER(K40), ISNUMBER(C40)), K40 - C40, "")</f>
         <v/>
       </c>
     </row>
@@ -13980,12 +14487,13 @@
       </c>
       <c r="G41" s="7" t="inlineStr"/>
       <c r="H41" s="5" t="inlineStr"/>
-      <c r="J41" s="7">
+      <c r="I41" s="5" t="inlineStr"/>
+      <c r="K41" s="7">
         <f>IFERROR(AVERAGE(D41, E41), "")</f>
         <v/>
       </c>
-      <c r="K41" s="7">
-        <f>IFERROR(J41 - C41, "")</f>
+      <c r="L41" s="7">
+        <f>IF(AND(ISNUMBER(K41), ISNUMBER(C41)), K41 - C41, "")</f>
         <v/>
       </c>
     </row>
@@ -14008,12 +14516,13 @@
       </c>
       <c r="G42" s="7" t="inlineStr"/>
       <c r="H42" s="5" t="inlineStr"/>
-      <c r="J42" s="7">
+      <c r="I42" s="5" t="inlineStr"/>
+      <c r="K42" s="7">
         <f>IFERROR(AVERAGE(D42, E42), "")</f>
         <v/>
       </c>
-      <c r="K42" s="7">
-        <f>IFERROR(J42 - C42, "")</f>
+      <c r="L42" s="7">
+        <f>IF(AND(ISNUMBER(K42), ISNUMBER(C42)), K42 - C42, "")</f>
         <v/>
       </c>
     </row>
@@ -14036,12 +14545,13 @@
       </c>
       <c r="G43" s="7" t="inlineStr"/>
       <c r="H43" s="5" t="inlineStr"/>
-      <c r="J43" s="7">
+      <c r="I43" s="5" t="inlineStr"/>
+      <c r="K43" s="7">
         <f>IFERROR(AVERAGE(D43, E43), "")</f>
         <v/>
       </c>
-      <c r="K43" s="7">
-        <f>IFERROR(J43 - C43, "")</f>
+      <c r="L43" s="7">
+        <f>IF(AND(ISNUMBER(K43), ISNUMBER(C43)), K43 - C43, "")</f>
         <v/>
       </c>
     </row>
@@ -14062,12 +14572,13 @@
       <c r="F44" s="7" t="inlineStr"/>
       <c r="G44" s="7" t="inlineStr"/>
       <c r="H44" s="5" t="inlineStr"/>
-      <c r="J44" s="7">
+      <c r="I44" s="5" t="inlineStr"/>
+      <c r="K44" s="7">
         <f>IFERROR(AVERAGE(D44, E44), "")</f>
         <v/>
       </c>
-      <c r="K44" s="7">
-        <f>IFERROR(J44 - C44, "")</f>
+      <c r="L44" s="7">
+        <f>IF(AND(ISNUMBER(K44), ISNUMBER(C44)), K44 - C44, "")</f>
         <v/>
       </c>
     </row>
@@ -14090,12 +14601,13 @@
       </c>
       <c r="G45" s="7" t="inlineStr"/>
       <c r="H45" s="5" t="inlineStr"/>
-      <c r="J45" s="7">
+      <c r="I45" s="5" t="inlineStr"/>
+      <c r="K45" s="7">
         <f>IFERROR(AVERAGE(D45, E45), "")</f>
         <v/>
       </c>
-      <c r="K45" s="7">
-        <f>IFERROR(J45 - C45, "")</f>
+      <c r="L45" s="7">
+        <f>IF(AND(ISNUMBER(K45), ISNUMBER(C45)), K45 - C45, "")</f>
         <v/>
       </c>
     </row>
@@ -14118,12 +14630,13 @@
       </c>
       <c r="G46" s="7" t="inlineStr"/>
       <c r="H46" s="5" t="inlineStr"/>
-      <c r="J46" s="7">
+      <c r="I46" s="5" t="inlineStr"/>
+      <c r="K46" s="7">
         <f>IFERROR(AVERAGE(D46, E46), "")</f>
         <v/>
       </c>
-      <c r="K46" s="7">
-        <f>IFERROR(J46 - C46, "")</f>
+      <c r="L46" s="7">
+        <f>IF(AND(ISNUMBER(K46), ISNUMBER(C46)), K46 - C46, "")</f>
         <v/>
       </c>
     </row>
@@ -14144,12 +14657,13 @@
       <c r="F47" s="7" t="inlineStr"/>
       <c r="G47" s="7" t="inlineStr"/>
       <c r="H47" s="5" t="inlineStr"/>
-      <c r="J47" s="7">
+      <c r="I47" s="5" t="inlineStr"/>
+      <c r="K47" s="7">
         <f>IFERROR(AVERAGE(D47, E47), "")</f>
         <v/>
       </c>
-      <c r="K47" s="7">
-        <f>IFERROR(J47 - C47, "")</f>
+      <c r="L47" s="7">
+        <f>IF(AND(ISNUMBER(K47), ISNUMBER(C47)), K47 - C47, "")</f>
         <v/>
       </c>
     </row>
@@ -14170,12 +14684,13 @@
       <c r="F48" s="7" t="inlineStr"/>
       <c r="G48" s="7" t="inlineStr"/>
       <c r="H48" s="5" t="inlineStr"/>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="inlineStr"/>
+      <c r="K48" s="7">
         <f>IFERROR(AVERAGE(D48, E48), "")</f>
         <v/>
       </c>
-      <c r="K48" s="7">
-        <f>IFERROR(J48 - C48, "")</f>
+      <c r="L48" s="7">
+        <f>IF(AND(ISNUMBER(K48), ISNUMBER(C48)), K48 - C48, "")</f>
         <v/>
       </c>
     </row>
@@ -14198,12 +14713,13 @@
       </c>
       <c r="G49" s="7" t="inlineStr"/>
       <c r="H49" s="5" t="inlineStr"/>
-      <c r="J49" s="7">
+      <c r="I49" s="5" t="inlineStr"/>
+      <c r="K49" s="7">
         <f>IFERROR(AVERAGE(D49, E49), "")</f>
         <v/>
       </c>
-      <c r="K49" s="7">
-        <f>IFERROR(J49 - C49, "")</f>
+      <c r="L49" s="7">
+        <f>IF(AND(ISNUMBER(K49), ISNUMBER(C49)), K49 - C49, "")</f>
         <v/>
       </c>
     </row>
@@ -14226,12 +14742,13 @@
       </c>
       <c r="G50" s="7" t="inlineStr"/>
       <c r="H50" s="5" t="inlineStr"/>
-      <c r="J50" s="7">
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="K50" s="7">
         <f>IFERROR(AVERAGE(D50, E50), "")</f>
         <v/>
       </c>
-      <c r="K50" s="7">
-        <f>IFERROR(J50 - C50, "")</f>
+      <c r="L50" s="7">
+        <f>IF(AND(ISNUMBER(K50), ISNUMBER(C50)), K50 - C50, "")</f>
         <v/>
       </c>
     </row>
@@ -14252,12 +14769,13 @@
       <c r="F51" s="7" t="inlineStr"/>
       <c r="G51" s="7" t="inlineStr"/>
       <c r="H51" s="5" t="inlineStr"/>
-      <c r="J51" s="7">
+      <c r="I51" s="5" t="inlineStr"/>
+      <c r="K51" s="7">
         <f>IFERROR(AVERAGE(D51, E51), "")</f>
         <v/>
       </c>
-      <c r="K51" s="7">
-        <f>IFERROR(J51 - C51, "")</f>
+      <c r="L51" s="7">
+        <f>IF(AND(ISNUMBER(K51), ISNUMBER(C51)), K51 - C51, "")</f>
         <v/>
       </c>
     </row>
@@ -14280,12 +14798,13 @@
       </c>
       <c r="G52" s="7" t="inlineStr"/>
       <c r="H52" s="5" t="inlineStr"/>
-      <c r="J52" s="7">
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="K52" s="7">
         <f>IFERROR(AVERAGE(D52, E52), "")</f>
         <v/>
       </c>
-      <c r="K52" s="7">
-        <f>IFERROR(J52 - C52, "")</f>
+      <c r="L52" s="7">
+        <f>IF(AND(ISNUMBER(K52), ISNUMBER(C52)), K52 - C52, "")</f>
         <v/>
       </c>
     </row>
@@ -14306,12 +14825,13 @@
       <c r="F53" s="7" t="inlineStr"/>
       <c r="G53" s="7" t="inlineStr"/>
       <c r="H53" s="5" t="inlineStr"/>
-      <c r="J53" s="7">
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="K53" s="7">
         <f>IFERROR(AVERAGE(D53, E53), "")</f>
         <v/>
       </c>
-      <c r="K53" s="7">
-        <f>IFERROR(J53 - C53, "")</f>
+      <c r="L53" s="7">
+        <f>IF(AND(ISNUMBER(K53), ISNUMBER(C53)), K53 - C53, "")</f>
         <v/>
       </c>
     </row>
@@ -14332,12 +14852,13 @@
       <c r="F54" s="7" t="inlineStr"/>
       <c r="G54" s="7" t="inlineStr"/>
       <c r="H54" s="5" t="inlineStr"/>
-      <c r="J54" s="7">
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="K54" s="7">
         <f>IFERROR(AVERAGE(D54, E54), "")</f>
         <v/>
       </c>
-      <c r="K54" s="7">
-        <f>IFERROR(J54 - C54, "")</f>
+      <c r="L54" s="7">
+        <f>IF(AND(ISNUMBER(K54), ISNUMBER(C54)), K54 - C54, "")</f>
         <v/>
       </c>
     </row>
@@ -14360,12 +14881,13 @@
       </c>
       <c r="G55" s="7" t="inlineStr"/>
       <c r="H55" s="5" t="inlineStr"/>
-      <c r="J55" s="7">
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="K55" s="7">
         <f>IFERROR(AVERAGE(D55, E55), "")</f>
         <v/>
       </c>
-      <c r="K55" s="7">
-        <f>IFERROR(J55 - C55, "")</f>
+      <c r="L55" s="7">
+        <f>IF(AND(ISNUMBER(K55), ISNUMBER(C55)), K55 - C55, "")</f>
         <v/>
       </c>
     </row>
@@ -14388,12 +14910,13 @@
       </c>
       <c r="G56" s="7" t="inlineStr"/>
       <c r="H56" s="5" t="inlineStr"/>
-      <c r="J56" s="7">
+      <c r="I56" s="5" t="inlineStr"/>
+      <c r="K56" s="7">
         <f>IFERROR(AVERAGE(D56, E56), "")</f>
         <v/>
       </c>
-      <c r="K56" s="7">
-        <f>IFERROR(J56 - C56, "")</f>
+      <c r="L56" s="7">
+        <f>IF(AND(ISNUMBER(K56), ISNUMBER(C56)), K56 - C56, "")</f>
         <v/>
       </c>
     </row>
@@ -14414,12 +14937,13 @@
       <c r="F57" s="7" t="inlineStr"/>
       <c r="G57" s="7" t="inlineStr"/>
       <c r="H57" s="5" t="inlineStr"/>
-      <c r="J57" s="7">
+      <c r="I57" s="5" t="inlineStr"/>
+      <c r="K57" s="7">
         <f>IFERROR(AVERAGE(D57, E57), "")</f>
         <v/>
       </c>
-      <c r="K57" s="7">
-        <f>IFERROR(J57 - C57, "")</f>
+      <c r="L57" s="7">
+        <f>IF(AND(ISNUMBER(K57), ISNUMBER(C57)), K57 - C57, "")</f>
         <v/>
       </c>
     </row>
@@ -14442,12 +14966,13 @@
       </c>
       <c r="G58" s="7" t="inlineStr"/>
       <c r="H58" s="5" t="inlineStr"/>
-      <c r="J58" s="7">
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="K58" s="7">
         <f>IFERROR(AVERAGE(D58, E58), "")</f>
         <v/>
       </c>
-      <c r="K58" s="7">
-        <f>IFERROR(J58 - C58, "")</f>
+      <c r="L58" s="7">
+        <f>IF(AND(ISNUMBER(K58), ISNUMBER(C58)), K58 - C58, "")</f>
         <v/>
       </c>
     </row>
@@ -14468,12 +14993,13 @@
       <c r="F59" s="7" t="inlineStr"/>
       <c r="G59" s="7" t="inlineStr"/>
       <c r="H59" s="5" t="inlineStr"/>
-      <c r="J59" s="7">
+      <c r="I59" s="5" t="inlineStr"/>
+      <c r="K59" s="7">
         <f>IFERROR(AVERAGE(D59, E59), "")</f>
         <v/>
       </c>
-      <c r="K59" s="7">
-        <f>IFERROR(J59 - C59, "")</f>
+      <c r="L59" s="7">
+        <f>IF(AND(ISNUMBER(K59), ISNUMBER(C59)), K59 - C59, "")</f>
         <v/>
       </c>
     </row>
@@ -14496,12 +15022,13 @@
       </c>
       <c r="G60" s="7" t="inlineStr"/>
       <c r="H60" s="5" t="inlineStr"/>
-      <c r="J60" s="7">
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="K60" s="7">
         <f>IFERROR(AVERAGE(D60, E60), "")</f>
         <v/>
       </c>
-      <c r="K60" s="7">
-        <f>IFERROR(J60 - C60, "")</f>
+      <c r="L60" s="7">
+        <f>IF(AND(ISNUMBER(K60), ISNUMBER(C60)), K60 - C60, "")</f>
         <v/>
       </c>
     </row>
@@ -14524,12 +15051,13 @@
       </c>
       <c r="G61" s="7" t="inlineStr"/>
       <c r="H61" s="5" t="inlineStr"/>
-      <c r="J61" s="7">
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="K61" s="7">
         <f>IFERROR(AVERAGE(D61, E61), "")</f>
         <v/>
       </c>
-      <c r="K61" s="7">
-        <f>IFERROR(J61 - C61, "")</f>
+      <c r="L61" s="7">
+        <f>IF(AND(ISNUMBER(K61), ISNUMBER(C61)), K61 - C61, "")</f>
         <v/>
       </c>
     </row>
@@ -14550,12 +15078,13 @@
       <c r="F62" s="7" t="inlineStr"/>
       <c r="G62" s="7" t="inlineStr"/>
       <c r="H62" s="5" t="inlineStr"/>
-      <c r="J62" s="7">
+      <c r="I62" s="5" t="inlineStr"/>
+      <c r="K62" s="7">
         <f>IFERROR(AVERAGE(D62, E62), "")</f>
         <v/>
       </c>
-      <c r="K62" s="7">
-        <f>IFERROR(J62 - C62, "")</f>
+      <c r="L62" s="7">
+        <f>IF(AND(ISNUMBER(K62), ISNUMBER(C62)), K62 - C62, "")</f>
         <v/>
       </c>
     </row>
@@ -14576,12 +15105,13 @@
       <c r="F63" s="7" t="inlineStr"/>
       <c r="G63" s="7" t="inlineStr"/>
       <c r="H63" s="5" t="inlineStr"/>
-      <c r="J63" s="7">
+      <c r="I63" s="5" t="inlineStr"/>
+      <c r="K63" s="7">
         <f>IFERROR(AVERAGE(D63, E63), "")</f>
         <v/>
       </c>
-      <c r="K63" s="7">
-        <f>IFERROR(J63 - C63, "")</f>
+      <c r="L63" s="7">
+        <f>IF(AND(ISNUMBER(K63), ISNUMBER(C63)), K63 - C63, "")</f>
         <v/>
       </c>
     </row>
@@ -14602,12 +15132,13 @@
       <c r="F64" s="7" t="inlineStr"/>
       <c r="G64" s="7" t="inlineStr"/>
       <c r="H64" s="5" t="inlineStr"/>
-      <c r="J64" s="7">
+      <c r="I64" s="5" t="inlineStr"/>
+      <c r="K64" s="7">
         <f>IFERROR(AVERAGE(D64, E64), "")</f>
         <v/>
       </c>
-      <c r="K64" s="7">
-        <f>IFERROR(J64 - C64, "")</f>
+      <c r="L64" s="7">
+        <f>IF(AND(ISNUMBER(K64), ISNUMBER(C64)), K64 - C64, "")</f>
         <v/>
       </c>
     </row>
@@ -14630,12 +15161,13 @@
       </c>
       <c r="G65" s="7" t="inlineStr"/>
       <c r="H65" s="5" t="inlineStr"/>
-      <c r="J65" s="7">
+      <c r="I65" s="5" t="inlineStr"/>
+      <c r="K65" s="7">
         <f>IFERROR(AVERAGE(D65, E65), "")</f>
         <v/>
       </c>
-      <c r="K65" s="7">
-        <f>IFERROR(J65 - C65, "")</f>
+      <c r="L65" s="7">
+        <f>IF(AND(ISNUMBER(K65), ISNUMBER(C65)), K65 - C65, "")</f>
         <v/>
       </c>
     </row>
@@ -14656,12 +15188,13 @@
       <c r="F66" s="7" t="inlineStr"/>
       <c r="G66" s="7" t="inlineStr"/>
       <c r="H66" s="5" t="inlineStr"/>
-      <c r="J66" s="7">
+      <c r="I66" s="5" t="inlineStr"/>
+      <c r="K66" s="7">
         <f>IFERROR(AVERAGE(D66, E66), "")</f>
         <v/>
       </c>
-      <c r="K66" s="7">
-        <f>IFERROR(J66 - C66, "")</f>
+      <c r="L66" s="7">
+        <f>IF(AND(ISNUMBER(K66), ISNUMBER(C66)), K66 - C66, "")</f>
         <v/>
       </c>
     </row>
@@ -14682,12 +15215,13 @@
       <c r="F67" s="7" t="inlineStr"/>
       <c r="G67" s="7" t="inlineStr"/>
       <c r="H67" s="5" t="inlineStr"/>
-      <c r="J67" s="7">
+      <c r="I67" s="5" t="inlineStr"/>
+      <c r="K67" s="7">
         <f>IFERROR(AVERAGE(D67, E67), "")</f>
         <v/>
       </c>
-      <c r="K67" s="7">
-        <f>IFERROR(J67 - C67, "")</f>
+      <c r="L67" s="7">
+        <f>IF(AND(ISNUMBER(K67), ISNUMBER(C67)), K67 - C67, "")</f>
         <v/>
       </c>
     </row>
@@ -14710,12 +15244,13 @@
       </c>
       <c r="G68" s="7" t="inlineStr"/>
       <c r="H68" s="5" t="inlineStr"/>
-      <c r="J68" s="7">
+      <c r="I68" s="5" t="inlineStr"/>
+      <c r="K68" s="7">
         <f>IFERROR(AVERAGE(D68, E68), "")</f>
         <v/>
       </c>
-      <c r="K68" s="7">
-        <f>IFERROR(J68 - C68, "")</f>
+      <c r="L68" s="7">
+        <f>IF(AND(ISNUMBER(K68), ISNUMBER(C68)), K68 - C68, "")</f>
         <v/>
       </c>
     </row>
@@ -14738,12 +15273,13 @@
       </c>
       <c r="G69" s="7" t="inlineStr"/>
       <c r="H69" s="5" t="inlineStr"/>
-      <c r="J69" s="7">
+      <c r="I69" s="5" t="inlineStr"/>
+      <c r="K69" s="7">
         <f>IFERROR(AVERAGE(D69, E69), "")</f>
         <v/>
       </c>
-      <c r="K69" s="7">
-        <f>IFERROR(J69 - C69, "")</f>
+      <c r="L69" s="7">
+        <f>IF(AND(ISNUMBER(K69), ISNUMBER(C69)), K69 - C69, "")</f>
         <v/>
       </c>
     </row>
@@ -14766,12 +15302,13 @@
       </c>
       <c r="G70" s="7" t="inlineStr"/>
       <c r="H70" s="5" t="inlineStr"/>
-      <c r="J70" s="7">
+      <c r="I70" s="5" t="inlineStr"/>
+      <c r="K70" s="7">
         <f>IFERROR(AVERAGE(D70, E70), "")</f>
         <v/>
       </c>
-      <c r="K70" s="7">
-        <f>IFERROR(J70 - C70, "")</f>
+      <c r="L70" s="7">
+        <f>IF(AND(ISNUMBER(K70), ISNUMBER(C70)), K70 - C70, "")</f>
         <v/>
       </c>
     </row>
@@ -14792,12 +15329,13 @@
       <c r="F71" s="7" t="inlineStr"/>
       <c r="G71" s="7" t="inlineStr"/>
       <c r="H71" s="5" t="inlineStr"/>
-      <c r="J71" s="7">
+      <c r="I71" s="5" t="inlineStr"/>
+      <c r="K71" s="7">
         <f>IFERROR(AVERAGE(D71, E71), "")</f>
         <v/>
       </c>
-      <c r="K71" s="7">
-        <f>IFERROR(J71 - C71, "")</f>
+      <c r="L71" s="7">
+        <f>IF(AND(ISNUMBER(K71), ISNUMBER(C71)), K71 - C71, "")</f>
         <v/>
       </c>
     </row>
@@ -14818,12 +15356,13 @@
       <c r="F72" s="7" t="inlineStr"/>
       <c r="G72" s="7" t="inlineStr"/>
       <c r="H72" s="5" t="inlineStr"/>
-      <c r="J72" s="7">
+      <c r="I72" s="5" t="inlineStr"/>
+      <c r="K72" s="7">
         <f>IFERROR(AVERAGE(D72, E72), "")</f>
         <v/>
       </c>
-      <c r="K72" s="7">
-        <f>IFERROR(J72 - C72, "")</f>
+      <c r="L72" s="7">
+        <f>IF(AND(ISNUMBER(K72), ISNUMBER(C72)), K72 - C72, "")</f>
         <v/>
       </c>
     </row>
@@ -14844,12 +15383,13 @@
       <c r="F73" s="7" t="inlineStr"/>
       <c r="G73" s="7" t="inlineStr"/>
       <c r="H73" s="5" t="inlineStr"/>
-      <c r="J73" s="7">
+      <c r="I73" s="5" t="inlineStr"/>
+      <c r="K73" s="7">
         <f>IFERROR(AVERAGE(D73, E73), "")</f>
         <v/>
       </c>
-      <c r="K73" s="7">
-        <f>IFERROR(J73 - C73, "")</f>
+      <c r="L73" s="7">
+        <f>IF(AND(ISNUMBER(K73), ISNUMBER(C73)), K73 - C73, "")</f>
         <v/>
       </c>
     </row>
@@ -14872,12 +15412,13 @@
       </c>
       <c r="G74" s="7" t="inlineStr"/>
       <c r="H74" s="5" t="inlineStr"/>
-      <c r="J74" s="7">
+      <c r="I74" s="5" t="inlineStr"/>
+      <c r="K74" s="7">
         <f>IFERROR(AVERAGE(D74, E74), "")</f>
         <v/>
       </c>
-      <c r="K74" s="7">
-        <f>IFERROR(J74 - C74, "")</f>
+      <c r="L74" s="7">
+        <f>IF(AND(ISNUMBER(K74), ISNUMBER(C74)), K74 - C74, "")</f>
         <v/>
       </c>
     </row>
@@ -14898,12 +15439,13 @@
       <c r="F75" s="7" t="inlineStr"/>
       <c r="G75" s="7" t="inlineStr"/>
       <c r="H75" s="5" t="inlineStr"/>
-      <c r="J75" s="7">
+      <c r="I75" s="5" t="inlineStr"/>
+      <c r="K75" s="7">
         <f>IFERROR(AVERAGE(D75, E75), "")</f>
         <v/>
       </c>
-      <c r="K75" s="7">
-        <f>IFERROR(J75 - C75, "")</f>
+      <c r="L75" s="7">
+        <f>IF(AND(ISNUMBER(K75), ISNUMBER(C75)), K75 - C75, "")</f>
         <v/>
       </c>
     </row>
@@ -14924,12 +15466,13 @@
       <c r="F76" s="7" t="inlineStr"/>
       <c r="G76" s="7" t="inlineStr"/>
       <c r="H76" s="5" t="inlineStr"/>
-      <c r="J76" s="7">
+      <c r="I76" s="5" t="inlineStr"/>
+      <c r="K76" s="7">
         <f>IFERROR(AVERAGE(D76, E76), "")</f>
         <v/>
       </c>
-      <c r="K76" s="7">
-        <f>IFERROR(J76 - C76, "")</f>
+      <c r="L76" s="7">
+        <f>IF(AND(ISNUMBER(K76), ISNUMBER(C76)), K76 - C76, "")</f>
         <v/>
       </c>
     </row>
@@ -14950,12 +15493,13 @@
       <c r="F77" s="7" t="inlineStr"/>
       <c r="G77" s="7" t="inlineStr"/>
       <c r="H77" s="5" t="inlineStr"/>
-      <c r="J77" s="7">
+      <c r="I77" s="5" t="inlineStr"/>
+      <c r="K77" s="7">
         <f>IFERROR(AVERAGE(D77, E77), "")</f>
         <v/>
       </c>
-      <c r="K77" s="7">
-        <f>IFERROR(J77 - C77, "")</f>
+      <c r="L77" s="7">
+        <f>IF(AND(ISNUMBER(K77), ISNUMBER(C77)), K77 - C77, "")</f>
         <v/>
       </c>
     </row>
@@ -14978,12 +15522,13 @@
       </c>
       <c r="G78" s="7" t="inlineStr"/>
       <c r="H78" s="5" t="inlineStr"/>
-      <c r="J78" s="7">
+      <c r="I78" s="5" t="inlineStr"/>
+      <c r="K78" s="7">
         <f>IFERROR(AVERAGE(D78, E78), "")</f>
         <v/>
       </c>
-      <c r="K78" s="7">
-        <f>IFERROR(J78 - C78, "")</f>
+      <c r="L78" s="7">
+        <f>IF(AND(ISNUMBER(K78), ISNUMBER(C78)), K78 - C78, "")</f>
         <v/>
       </c>
     </row>
@@ -15004,12 +15549,13 @@
       <c r="F79" s="7" t="inlineStr"/>
       <c r="G79" s="7" t="inlineStr"/>
       <c r="H79" s="5" t="inlineStr"/>
-      <c r="J79" s="7">
+      <c r="I79" s="5" t="inlineStr"/>
+      <c r="K79" s="7">
         <f>IFERROR(AVERAGE(D79, E79), "")</f>
         <v/>
       </c>
-      <c r="K79" s="7">
-        <f>IFERROR(J79 - C79, "")</f>
+      <c r="L79" s="7">
+        <f>IF(AND(ISNUMBER(K79), ISNUMBER(C79)), K79 - C79, "")</f>
         <v/>
       </c>
     </row>
@@ -15032,12 +15578,13 @@
       </c>
       <c r="G80" s="7" t="inlineStr"/>
       <c r="H80" s="5" t="inlineStr"/>
-      <c r="J80" s="7">
+      <c r="I80" s="5" t="inlineStr"/>
+      <c r="K80" s="7">
         <f>IFERROR(AVERAGE(D80, E80), "")</f>
         <v/>
       </c>
-      <c r="K80" s="7">
-        <f>IFERROR(J80 - C80, "")</f>
+      <c r="L80" s="7">
+        <f>IF(AND(ISNUMBER(K80), ISNUMBER(C80)), K80 - C80, "")</f>
         <v/>
       </c>
     </row>
@@ -15058,12 +15605,13 @@
       <c r="F81" s="7" t="inlineStr"/>
       <c r="G81" s="7" t="inlineStr"/>
       <c r="H81" s="5" t="inlineStr"/>
-      <c r="J81" s="7">
+      <c r="I81" s="5" t="inlineStr"/>
+      <c r="K81" s="7">
         <f>IFERROR(AVERAGE(D81, E81), "")</f>
         <v/>
       </c>
-      <c r="K81" s="7">
-        <f>IFERROR(J81 - C81, "")</f>
+      <c r="L81" s="7">
+        <f>IF(AND(ISNUMBER(K81), ISNUMBER(C81)), K81 - C81, "")</f>
         <v/>
       </c>
     </row>
@@ -15084,12 +15632,13 @@
       <c r="F82" s="7" t="inlineStr"/>
       <c r="G82" s="7" t="inlineStr"/>
       <c r="H82" s="5" t="inlineStr"/>
-      <c r="J82" s="7">
+      <c r="I82" s="5" t="inlineStr"/>
+      <c r="K82" s="7">
         <f>IFERROR(AVERAGE(D82, E82), "")</f>
         <v/>
       </c>
-      <c r="K82" s="7">
-        <f>IFERROR(J82 - C82, "")</f>
+      <c r="L82" s="7">
+        <f>IF(AND(ISNUMBER(K82), ISNUMBER(C82)), K82 - C82, "")</f>
         <v/>
       </c>
     </row>
@@ -15110,12 +15659,13 @@
       <c r="F83" s="7" t="inlineStr"/>
       <c r="G83" s="7" t="inlineStr"/>
       <c r="H83" s="5" t="inlineStr"/>
-      <c r="J83" s="7">
+      <c r="I83" s="5" t="inlineStr"/>
+      <c r="K83" s="7">
         <f>IFERROR(AVERAGE(D83, E83), "")</f>
         <v/>
       </c>
-      <c r="K83" s="7">
-        <f>IFERROR(J83 - C83, "")</f>
+      <c r="L83" s="7">
+        <f>IF(AND(ISNUMBER(K83), ISNUMBER(C83)), K83 - C83, "")</f>
         <v/>
       </c>
     </row>
@@ -15136,12 +15686,13 @@
       <c r="F84" s="7" t="inlineStr"/>
       <c r="G84" s="7" t="inlineStr"/>
       <c r="H84" s="5" t="inlineStr"/>
-      <c r="J84" s="7">
+      <c r="I84" s="5" t="inlineStr"/>
+      <c r="K84" s="7">
         <f>IFERROR(AVERAGE(D84, E84), "")</f>
         <v/>
       </c>
-      <c r="K84" s="7">
-        <f>IFERROR(J84 - C84, "")</f>
+      <c r="L84" s="7">
+        <f>IF(AND(ISNUMBER(K84), ISNUMBER(C84)), K84 - C84, "")</f>
         <v/>
       </c>
     </row>
@@ -15164,12 +15715,13 @@
       </c>
       <c r="G85" s="7" t="inlineStr"/>
       <c r="H85" s="5" t="inlineStr"/>
-      <c r="J85" s="7">
+      <c r="I85" s="5" t="inlineStr"/>
+      <c r="K85" s="7">
         <f>IFERROR(AVERAGE(D85, E85), "")</f>
         <v/>
       </c>
-      <c r="K85" s="7">
-        <f>IFERROR(J85 - C85, "")</f>
+      <c r="L85" s="7">
+        <f>IF(AND(ISNUMBER(K85), ISNUMBER(C85)), K85 - C85, "")</f>
         <v/>
       </c>
     </row>
@@ -15190,12 +15742,13 @@
       <c r="F86" s="7" t="inlineStr"/>
       <c r="G86" s="7" t="inlineStr"/>
       <c r="H86" s="5" t="inlineStr"/>
-      <c r="J86" s="7">
+      <c r="I86" s="5" t="inlineStr"/>
+      <c r="K86" s="7">
         <f>IFERROR(AVERAGE(D86, E86), "")</f>
         <v/>
       </c>
-      <c r="K86" s="7">
-        <f>IFERROR(J86 - C86, "")</f>
+      <c r="L86" s="7">
+        <f>IF(AND(ISNUMBER(K86), ISNUMBER(C86)), K86 - C86, "")</f>
         <v/>
       </c>
     </row>
@@ -15216,12 +15769,13 @@
       <c r="F87" s="7" t="inlineStr"/>
       <c r="G87" s="7" t="inlineStr"/>
       <c r="H87" s="5" t="inlineStr"/>
-      <c r="J87" s="7">
+      <c r="I87" s="5" t="inlineStr"/>
+      <c r="K87" s="7">
         <f>IFERROR(AVERAGE(D87, E87), "")</f>
         <v/>
       </c>
-      <c r="K87" s="7">
-        <f>IFERROR(J87 - C87, "")</f>
+      <c r="L87" s="7">
+        <f>IF(AND(ISNUMBER(K87), ISNUMBER(C87)), K87 - C87, "")</f>
         <v/>
       </c>
     </row>
@@ -15244,12 +15798,13 @@
       </c>
       <c r="G88" s="7" t="inlineStr"/>
       <c r="H88" s="5" t="inlineStr"/>
-      <c r="J88" s="7">
+      <c r="I88" s="5" t="inlineStr"/>
+      <c r="K88" s="7">
         <f>IFERROR(AVERAGE(D88, E88), "")</f>
         <v/>
       </c>
-      <c r="K88" s="7">
-        <f>IFERROR(J88 - C88, "")</f>
+      <c r="L88" s="7">
+        <f>IF(AND(ISNUMBER(K88), ISNUMBER(C88)), K88 - C88, "")</f>
         <v/>
       </c>
     </row>
@@ -15270,12 +15825,13 @@
       <c r="F89" s="7" t="inlineStr"/>
       <c r="G89" s="7" t="inlineStr"/>
       <c r="H89" s="5" t="inlineStr"/>
-      <c r="J89" s="7">
+      <c r="I89" s="5" t="inlineStr"/>
+      <c r="K89" s="7">
         <f>IFERROR(AVERAGE(D89, E89), "")</f>
         <v/>
       </c>
-      <c r="K89" s="7">
-        <f>IFERROR(J89 - C89, "")</f>
+      <c r="L89" s="7">
+        <f>IF(AND(ISNUMBER(K89), ISNUMBER(C89)), K89 - C89, "")</f>
         <v/>
       </c>
     </row>
@@ -15296,12 +15852,13 @@
       <c r="F90" s="7" t="inlineStr"/>
       <c r="G90" s="7" t="inlineStr"/>
       <c r="H90" s="5" t="inlineStr"/>
-      <c r="J90" s="7">
+      <c r="I90" s="5" t="inlineStr"/>
+      <c r="K90" s="7">
         <f>IFERROR(AVERAGE(D90, E90), "")</f>
         <v/>
       </c>
-      <c r="K90" s="7">
-        <f>IFERROR(J90 - C90, "")</f>
+      <c r="L90" s="7">
+        <f>IF(AND(ISNUMBER(K90), ISNUMBER(C90)), K90 - C90, "")</f>
         <v/>
       </c>
     </row>
@@ -15324,12 +15881,13 @@
       </c>
       <c r="G91" s="7" t="inlineStr"/>
       <c r="H91" s="5" t="inlineStr"/>
-      <c r="J91" s="7">
+      <c r="I91" s="5" t="inlineStr"/>
+      <c r="K91" s="7">
         <f>IFERROR(AVERAGE(D91, E91), "")</f>
         <v/>
       </c>
-      <c r="K91" s="7">
-        <f>IFERROR(J91 - C91, "")</f>
+      <c r="L91" s="7">
+        <f>IF(AND(ISNUMBER(K91), ISNUMBER(C91)), K91 - C91, "")</f>
         <v/>
       </c>
     </row>
@@ -15350,12 +15908,13 @@
       <c r="F92" s="7" t="inlineStr"/>
       <c r="G92" s="7" t="inlineStr"/>
       <c r="H92" s="5" t="inlineStr"/>
-      <c r="J92" s="7">
+      <c r="I92" s="5" t="inlineStr"/>
+      <c r="K92" s="7">
         <f>IFERROR(AVERAGE(D92, E92), "")</f>
         <v/>
       </c>
-      <c r="K92" s="7">
-        <f>IFERROR(J92 - C92, "")</f>
+      <c r="L92" s="7">
+        <f>IF(AND(ISNUMBER(K92), ISNUMBER(C92)), K92 - C92, "")</f>
         <v/>
       </c>
     </row>
@@ -15376,12 +15935,13 @@
       <c r="F93" s="7" t="inlineStr"/>
       <c r="G93" s="7" t="inlineStr"/>
       <c r="H93" s="5" t="inlineStr"/>
-      <c r="J93" s="7">
+      <c r="I93" s="5" t="inlineStr"/>
+      <c r="K93" s="7">
         <f>IFERROR(AVERAGE(D93, E93), "")</f>
         <v/>
       </c>
-      <c r="K93" s="7">
-        <f>IFERROR(J93 - C93, "")</f>
+      <c r="L93" s="7">
+        <f>IF(AND(ISNUMBER(K93), ISNUMBER(C93)), K93 - C93, "")</f>
         <v/>
       </c>
     </row>
@@ -15402,12 +15962,13 @@
       <c r="F94" s="7" t="inlineStr"/>
       <c r="G94" s="7" t="inlineStr"/>
       <c r="H94" s="5" t="inlineStr"/>
-      <c r="J94" s="7">
+      <c r="I94" s="5" t="inlineStr"/>
+      <c r="K94" s="7">
         <f>IFERROR(AVERAGE(D94, E94), "")</f>
         <v/>
       </c>
-      <c r="K94" s="7">
-        <f>IFERROR(J94 - C94, "")</f>
+      <c r="L94" s="7">
+        <f>IF(AND(ISNUMBER(K94), ISNUMBER(C94)), K94 - C94, "")</f>
         <v/>
       </c>
     </row>
@@ -15430,12 +15991,13 @@
       </c>
       <c r="G95" s="7" t="inlineStr"/>
       <c r="H95" s="5" t="inlineStr"/>
-      <c r="J95" s="7">
+      <c r="I95" s="5" t="inlineStr"/>
+      <c r="K95" s="7">
         <f>IFERROR(AVERAGE(D95, E95), "")</f>
         <v/>
       </c>
-      <c r="K95" s="7">
-        <f>IFERROR(J95 - C95, "")</f>
+      <c r="L95" s="7">
+        <f>IF(AND(ISNUMBER(K95), ISNUMBER(C95)), K95 - C95, "")</f>
         <v/>
       </c>
     </row>
@@ -15456,12 +16018,13 @@
       <c r="F96" s="7" t="inlineStr"/>
       <c r="G96" s="7" t="inlineStr"/>
       <c r="H96" s="5" t="inlineStr"/>
-      <c r="J96" s="7">
+      <c r="I96" s="5" t="inlineStr"/>
+      <c r="K96" s="7">
         <f>IFERROR(AVERAGE(D96, E96), "")</f>
         <v/>
       </c>
-      <c r="K96" s="7">
-        <f>IFERROR(J96 - C96, "")</f>
+      <c r="L96" s="7">
+        <f>IF(AND(ISNUMBER(K96), ISNUMBER(C96)), K96 - C96, "")</f>
         <v/>
       </c>
     </row>
@@ -15482,12 +16045,13 @@
       <c r="F97" s="7" t="inlineStr"/>
       <c r="G97" s="7" t="inlineStr"/>
       <c r="H97" s="5" t="inlineStr"/>
-      <c r="J97" s="7">
+      <c r="I97" s="5" t="inlineStr"/>
+      <c r="K97" s="7">
         <f>IFERROR(AVERAGE(D97, E97), "")</f>
         <v/>
       </c>
-      <c r="K97" s="7">
-        <f>IFERROR(J97 - C97, "")</f>
+      <c r="L97" s="7">
+        <f>IF(AND(ISNUMBER(K97), ISNUMBER(C97)), K97 - C97, "")</f>
         <v/>
       </c>
     </row>
@@ -15508,12 +16072,13 @@
       <c r="F98" s="7" t="inlineStr"/>
       <c r="G98" s="7" t="inlineStr"/>
       <c r="H98" s="5" t="inlineStr"/>
-      <c r="J98" s="7">
+      <c r="I98" s="5" t="inlineStr"/>
+      <c r="K98" s="7">
         <f>IFERROR(AVERAGE(D98, E98), "")</f>
         <v/>
       </c>
-      <c r="K98" s="7">
-        <f>IFERROR(J98 - C98, "")</f>
+      <c r="L98" s="7">
+        <f>IF(AND(ISNUMBER(K98), ISNUMBER(C98)), K98 - C98, "")</f>
         <v/>
       </c>
     </row>
@@ -15534,12 +16099,13 @@
       <c r="F99" s="7" t="inlineStr"/>
       <c r="G99" s="7" t="inlineStr"/>
       <c r="H99" s="5" t="inlineStr"/>
-      <c r="J99" s="7">
+      <c r="I99" s="5" t="inlineStr"/>
+      <c r="K99" s="7">
         <f>IFERROR(AVERAGE(D99, E99), "")</f>
         <v/>
       </c>
-      <c r="K99" s="7">
-        <f>IFERROR(J99 - C99, "")</f>
+      <c r="L99" s="7">
+        <f>IF(AND(ISNUMBER(K99), ISNUMBER(C99)), K99 - C99, "")</f>
         <v/>
       </c>
     </row>
@@ -15560,12 +16126,13 @@
       <c r="F100" s="7" t="inlineStr"/>
       <c r="G100" s="7" t="inlineStr"/>
       <c r="H100" s="5" t="inlineStr"/>
-      <c r="J100" s="7">
+      <c r="I100" s="5" t="inlineStr"/>
+      <c r="K100" s="7">
         <f>IFERROR(AVERAGE(D100, E100), "")</f>
         <v/>
       </c>
-      <c r="K100" s="7">
-        <f>IFERROR(J100 - C100, "")</f>
+      <c r="L100" s="7">
+        <f>IF(AND(ISNUMBER(K100), ISNUMBER(C100)), K100 - C100, "")</f>
         <v/>
       </c>
     </row>
@@ -15586,12 +16153,13 @@
       <c r="F101" s="7" t="inlineStr"/>
       <c r="G101" s="7" t="inlineStr"/>
       <c r="H101" s="5" t="inlineStr"/>
-      <c r="J101" s="7">
+      <c r="I101" s="5" t="inlineStr"/>
+      <c r="K101" s="7">
         <f>IFERROR(AVERAGE(D101, E101), "")</f>
         <v/>
       </c>
-      <c r="K101" s="7">
-        <f>IFERROR(J101 - C101, "")</f>
+      <c r="L101" s="7">
+        <f>IF(AND(ISNUMBER(K101), ISNUMBER(C101)), K101 - C101, "")</f>
         <v/>
       </c>
     </row>
@@ -15612,12 +16180,13 @@
       <c r="F102" s="7" t="inlineStr"/>
       <c r="G102" s="7" t="inlineStr"/>
       <c r="H102" s="5" t="inlineStr"/>
-      <c r="J102" s="7">
+      <c r="I102" s="5" t="inlineStr"/>
+      <c r="K102" s="7">
         <f>IFERROR(AVERAGE(D102, E102), "")</f>
         <v/>
       </c>
-      <c r="K102" s="7">
-        <f>IFERROR(J102 - C102, "")</f>
+      <c r="L102" s="7">
+        <f>IF(AND(ISNUMBER(K102), ISNUMBER(C102)), K102 - C102, "")</f>
         <v/>
       </c>
     </row>
@@ -15638,12 +16207,13 @@
       <c r="F103" s="7" t="inlineStr"/>
       <c r="G103" s="7" t="inlineStr"/>
       <c r="H103" s="5" t="inlineStr"/>
-      <c r="J103" s="7">
+      <c r="I103" s="5" t="inlineStr"/>
+      <c r="K103" s="7">
         <f>IFERROR(AVERAGE(D103, E103), "")</f>
         <v/>
       </c>
-      <c r="K103" s="7">
-        <f>IFERROR(J103 - C103, "")</f>
+      <c r="L103" s="7">
+        <f>IF(AND(ISNUMBER(K103), ISNUMBER(C103)), K103 - C103, "")</f>
         <v/>
       </c>
     </row>
@@ -15666,12 +16236,13 @@
       </c>
       <c r="G104" s="7" t="inlineStr"/>
       <c r="H104" s="5" t="inlineStr"/>
-      <c r="J104" s="7">
+      <c r="I104" s="5" t="inlineStr"/>
+      <c r="K104" s="7">
         <f>IFERROR(AVERAGE(D104, E104), "")</f>
         <v/>
       </c>
-      <c r="K104" s="7">
-        <f>IFERROR(J104 - C104, "")</f>
+      <c r="L104" s="7">
+        <f>IF(AND(ISNUMBER(K104), ISNUMBER(C104)), K104 - C104, "")</f>
         <v/>
       </c>
     </row>
@@ -15694,12 +16265,13 @@
       </c>
       <c r="G105" s="7" t="inlineStr"/>
       <c r="H105" s="5" t="inlineStr"/>
-      <c r="J105" s="7">
+      <c r="I105" s="5" t="inlineStr"/>
+      <c r="K105" s="7">
         <f>IFERROR(AVERAGE(D105, E105), "")</f>
         <v/>
       </c>
-      <c r="K105" s="7">
-        <f>IFERROR(J105 - C105, "")</f>
+      <c r="L105" s="7">
+        <f>IF(AND(ISNUMBER(K105), ISNUMBER(C105)), K105 - C105, "")</f>
         <v/>
       </c>
     </row>
@@ -15722,23 +16294,26 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K105">
-    <cfRule type="expression" priority="1" stopIfTrue="1">
-      <formula>LEN(TRIM(J7))=0</formula>
+  <conditionalFormatting sqref="L7:L105">
+    <cfRule type="cellIs" priority="6" operator="equal" stopIfTrue="1">
+      <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan" dxfId="0" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1006" operator="lessThan" dxfId="0" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1006" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="greaterThan" dxfId="2" stopIfTrue="1">
+    <cfRule type="cellIs" priority="1006" operator="greaterThan" dxfId="2" stopIfTrue="1">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:H105">
+  <conditionalFormatting sqref="A7:I105">
     <cfRule type="expression" priority="5" dxfId="3" stopIfTrue="1">
-      <formula>LEN(TRIM($H7))&lt;&gt;0</formula>
+      <formula>LEN(TRIM($H7))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="3" stopIfTrue="1">
+      <formula>LEN(TRIM($I7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
